--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssahoo43\D_Drive\eAppBHFAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DB437B63-3EBE-4775-817B-122C1343A952}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D5D88C-FF44-4810-8CB6-DBBB91F2EA32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="2870" windowWidth="12760" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12756" windowHeight="2868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" r:id="rId1" sheetId="1"/>
-    <sheet name="TestData" r:id="rId2" sheetId="4"/>
-    <sheet name="ListValues" r:id="rId3" sheetId="3"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="4" r:id="rId2"/>
+    <sheet name="ListValues" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">TestData!$A$2:$H$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestData!$A$2:$H$103</definedName>
     <definedName name="P_Country">ListValues!$D$2:$D$24</definedName>
     <definedName name="P_Frequency">ListValues!$G$2:$G$5</definedName>
     <definedName name="P_Gender">ListValues!$E$2:$E$3</definedName>
@@ -32,7 +32,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="344">
   <si>
     <t>SLNo</t>
   </si>
@@ -749,12 +749,6 @@
     <t>Financial Professionals Information</t>
   </si>
   <si>
-    <t>Soumendra</t>
-  </si>
-  <si>
-    <t>Sahoo</t>
-  </si>
-  <si>
     <t>Submission Page</t>
   </si>
   <si>
@@ -788,15 +782,9 @@
     <t>OpenPolicyByName</t>
   </si>
   <si>
-    <t>Sahoo II, Soumendra</t>
-  </si>
-  <si>
     <t>ssahoo43@dxc.com</t>
   </si>
   <si>
-    <t>D920000069</t>
-  </si>
-  <si>
     <t>Application CRDA is missing.</t>
   </si>
   <si>
@@ -809,266 +797,292 @@
     <t>Annuitant First Name is missing.</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Owner Information</t>
+  </si>
+  <si>
+    <t>Owner's First Name is missing.</t>
+  </si>
+  <si>
+    <t>Owner Identity</t>
+  </si>
+  <si>
+    <t>Owner Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Street address</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>Custodian</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>WFCS, LLC FBO ISAAC ROSCOE BOND</t>
+  </si>
+  <si>
+    <t>One North Jefferson Avenue</t>
+  </si>
+  <si>
+    <t>MAC H0006-085</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>Tax ID Number</t>
+  </si>
+  <si>
+    <t>ISHWARDASS@AOL.COM</t>
+  </si>
+  <si>
+    <t>376541477</t>
+  </si>
+  <si>
+    <t>2398499745</t>
+  </si>
+  <si>
+    <t>Authorize Prefix</t>
+  </si>
+  <si>
+    <t>Authorize First Name</t>
+  </si>
+  <si>
+    <t>Authorize Middle Name</t>
+  </si>
+  <si>
+    <t>Authorize Last Name</t>
+  </si>
+  <si>
+    <t>Authorize Suffix</t>
+  </si>
+  <si>
+    <t>Authorize Title</t>
+  </si>
+  <si>
+    <t>ISHWAR</t>
+  </si>
+  <si>
+    <t>DASS</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Beneficiary 1 Date of Birth is not valid or cannot be a future date.</t>
+  </si>
+  <si>
+    <t>Contingent Beneficiary 1 First Name is missing.</t>
+  </si>
+  <si>
+    <t>CBN First Name</t>
+  </si>
+  <si>
+    <t>CBN Date of Birth</t>
+  </si>
+  <si>
+    <t>Beneficiary 1 First Name is missing.</t>
+  </si>
+  <si>
+    <t>Contingent Beneficiary 1 Date of Birth is not valid or cannot be a future date.</t>
+  </si>
+  <si>
+    <t>CBN Divide Proceed equally</t>
+  </si>
+  <si>
+    <t>CBN Beneficiary Type</t>
+  </si>
+  <si>
+    <t>CBN Name</t>
+  </si>
+  <si>
+    <t>Blue Whale Entity</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>CBN Relationship to Owner</t>
+  </si>
+  <si>
+    <t>CBN Tax ID Number</t>
+  </si>
+  <si>
+    <t>232672345</t>
+  </si>
+  <si>
+    <t>5453454388</t>
+  </si>
+  <si>
+    <t>6280 MUIRFIELD</t>
+  </si>
+  <si>
+    <t>CBN Phone Number</t>
+  </si>
+  <si>
+    <t>CBN Attention Line</t>
+  </si>
+  <si>
+    <t>CBN Street Address</t>
+  </si>
+  <si>
+    <t>CBN Line2</t>
+  </si>
+  <si>
+    <t>CBN Line3</t>
+  </si>
+  <si>
+    <t>CBN State</t>
+  </si>
+  <si>
+    <t>CBN Zip</t>
+  </si>
+  <si>
+    <t>CBN Contry</t>
+  </si>
+  <si>
+    <t>CBN % of Proceeds</t>
+  </si>
+  <si>
+    <t>DR GRAND BLANCX</t>
+  </si>
+  <si>
+    <t>CBN Total</t>
+  </si>
+  <si>
+    <t>Total single purchase payment amount is missing.</t>
+  </si>
+  <si>
+    <t>Replacement 1 - Company is missing.</t>
+  </si>
+  <si>
+    <t>Financial Representative 1 First Name is missing.</t>
+  </si>
+  <si>
+    <t>Financial Representative 1 - Commission Split % is missing.</t>
+  </si>
+  <si>
+    <t>Total Interest Percent should equal 100.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Fishman</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>077682145</t>
+  </si>
+  <si>
+    <t>BAI</t>
+  </si>
+  <si>
+    <t>2039990102</t>
+  </si>
+  <si>
+    <t>A00912550</t>
+  </si>
+  <si>
+    <t>Server Side Message</t>
+  </si>
+  <si>
+    <t>Answer to the Proposed Annuitant's Signature question is missing.</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Answer to the Owner's Signature question is missing.</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Co Soumendra Sahoo</t>
+  </si>
+  <si>
+    <t>1st Street Layout</t>
+  </si>
+  <si>
+    <t>Confirmation Message</t>
+  </si>
+  <si>
+    <t>Application has been submitted successfully.</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>48439</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>12500</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test II, Automation</t>
+  </si>
+  <si>
+    <t>4352430</t>
+  </si>
+  <si>
+    <t>S920000062</t>
+  </si>
+  <si>
+    <t>S920000063</t>
+  </si>
+  <si>
+    <t>Save Confirmation Message</t>
+  </si>
+  <si>
+    <t>Save Close</t>
+  </si>
+  <si>
     <t>Annuitant's Last Name is missing.</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Owner Information</t>
-  </si>
-  <si>
-    <t>Owner's First Name is missing.</t>
-  </si>
-  <si>
-    <t>Owner Identity</t>
-  </si>
-  <si>
-    <t>Owner Type</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Street address</t>
-  </si>
-  <si>
-    <t>ZIP</t>
-  </si>
-  <si>
-    <t>Custodian</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>WFCS, LLC FBO ISAAC ROSCOE BOND</t>
-  </si>
-  <si>
-    <t>One North Jefferson Avenue</t>
-  </si>
-  <si>
-    <t>MAC H0006-085</t>
-  </si>
-  <si>
-    <t>St. Louis</t>
-  </si>
-  <si>
-    <t>63103</t>
-  </si>
-  <si>
-    <t>Tax ID Number</t>
-  </si>
-  <si>
-    <t>ISHWARDASS@AOL.COM</t>
-  </si>
-  <si>
-    <t>376541477</t>
-  </si>
-  <si>
-    <t>2398499745</t>
-  </si>
-  <si>
-    <t>Authorize Prefix</t>
-  </si>
-  <si>
-    <t>Authorize First Name</t>
-  </si>
-  <si>
-    <t>Authorize Middle Name</t>
-  </si>
-  <si>
-    <t>Authorize Last Name</t>
-  </si>
-  <si>
-    <t>Authorize Suffix</t>
-  </si>
-  <si>
-    <t>Authorize Title</t>
-  </si>
-  <si>
-    <t>ISHWAR</t>
-  </si>
-  <si>
-    <t>DASS</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>Beneficiary 1 Date of Birth is not valid or cannot be a future date.</t>
-  </si>
-  <si>
-    <t>Contingent Beneficiary 1 First Name is missing.</t>
-  </si>
-  <si>
-    <t>CBN First Name</t>
-  </si>
-  <si>
-    <t>CBN Date of Birth</t>
-  </si>
-  <si>
-    <t>Beneficiary 1 First Name is missing.</t>
-  </si>
-  <si>
-    <t>Contingent Beneficiary 1 Date of Birth is not valid or cannot be a future date.</t>
-  </si>
-  <si>
-    <t>CBN Divide Proceed equally</t>
-  </si>
-  <si>
-    <t>CBN Beneficiary Type</t>
-  </si>
-  <si>
-    <t>CBN Name</t>
-  </si>
-  <si>
-    <t>Blue Whale Entity</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>CBN Relationship to Owner</t>
-  </si>
-  <si>
-    <t>CBN Tax ID Number</t>
-  </si>
-  <si>
-    <t>232672345</t>
-  </si>
-  <si>
-    <t>5453454388</t>
-  </si>
-  <si>
-    <t>6280 MUIRFIELD</t>
-  </si>
-  <si>
-    <t>CBN Phone Number</t>
-  </si>
-  <si>
-    <t>CBN Attention Line</t>
-  </si>
-  <si>
-    <t>CBN Street Address</t>
-  </si>
-  <si>
-    <t>CBN Line2</t>
-  </si>
-  <si>
-    <t>CBN Line3</t>
-  </si>
-  <si>
-    <t>CBN State</t>
-  </si>
-  <si>
-    <t>CBN Zip</t>
-  </si>
-  <si>
-    <t>CBN Contry</t>
-  </si>
-  <si>
-    <t>CBN % of Proceeds</t>
-  </si>
-  <si>
-    <t>DR GRAND BLANCX</t>
-  </si>
-  <si>
-    <t>CBN Total</t>
-  </si>
-  <si>
-    <t>Total single purchase payment amount is missing.</t>
-  </si>
-  <si>
-    <t>Replacement 1 - Company is missing.</t>
-  </si>
-  <si>
-    <t>Financial Representative 1 First Name is missing.</t>
-  </si>
-  <si>
-    <t>Financial Representative 1 - Commission Split % is missing.</t>
-  </si>
-  <si>
-    <t>Total Interest Percent should equal 100.</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Fishman</t>
-  </si>
-  <si>
-    <t>Evan</t>
-  </si>
-  <si>
-    <t>077682145</t>
-  </si>
-  <si>
-    <t>BAI</t>
-  </si>
-  <si>
-    <t>2039990102</t>
-  </si>
-  <si>
-    <t>A00912550</t>
-  </si>
-  <si>
-    <t>Server Side Message</t>
-  </si>
-  <si>
-    <t>Answer to the Proposed Annuitant's Signature question is missing.</t>
-  </si>
-  <si>
-    <t>Previous</t>
-  </si>
-  <si>
-    <t>Answer to the Owner's Signature question is missing.</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Co Soumendra Sahoo</t>
-  </si>
-  <si>
-    <t>1st Street Layout</t>
-  </si>
-  <si>
-    <t>Confirmation Message</t>
-  </si>
-  <si>
-    <t>Application has been submitted successfully.</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>48439</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>12500</t>
-  </si>
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>D920000071</t>
+    <t>SelectPlan</t>
+  </si>
+  <si>
+    <t>Product Grid</t>
+  </si>
+  <si>
+    <t>Variable Prime Options - NY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1180,94 +1194,98 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="5">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="5"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_OLI_LU_NATION" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal_OLI_LUEXT_SUFFIX" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal_Sheet2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal_Sheet4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1284,10 +1302,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1322,7 +1340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1374,7 +1392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1485,21 +1503,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1516,7 +1534,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1568,28 +1586,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1611,7 +1629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1619,10 +1637,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1630,10 +1648,10 @@
         <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1641,15 +1659,15 @@
         <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -1657,38 +1675,38 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C6" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A152" ySplit="2"/>
-      <selection activeCell="E175" pane="bottomLeft" sqref="E175"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.6328125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="22" width="43.453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="35.36328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="9" width="35.36328125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.1796875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="31.36328125" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.44140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1710,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
@@ -1733,15 +1751,15 @@
         <v>131</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>121</v>
@@ -1752,33 +1770,39 @@
       <c r="F3" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G3" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>120</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G4" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>121</v>
@@ -1790,57 +1814,66 @@
         <v>120</v>
       </c>
       <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G5" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f>D199 &amp; ", Acknowledged"</f>
+        <v>S920000063, Acknowledged</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G7" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="9" t="str">
-        <f>E197 &amp; ", Acknowledged"</f>
-        <v>, Acknowledged</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>241</v>
-      </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>120</v>
@@ -1849,8 +1882,11 @@
         <v>120</v>
       </c>
       <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G8" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>122</v>
       </c>
@@ -1867,15 +1903,15 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>124</v>
+        <v>342</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>121</v>
+        <v>341</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>134</v>
@@ -1883,11 +1919,16 @@
       <c r="E10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="9" t="str">
+        <f>UPPER(C10)</f>
+        <v>SELECTPLAN</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>343</v>
+      </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>123</v>
       </c>
@@ -1904,7 +1945,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>129</v>
       </c>
@@ -1921,10 +1962,12 @@
         <v>120</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>129</v>
       </c>
@@ -1938,10 +1981,12 @@
         <v>120</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>129</v>
       </c>
@@ -1952,7 +1997,7 @@
         <v>125</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>120</v>
@@ -1961,9 +2006,9 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>129</v>
@@ -1978,7 +2023,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>129</v>
       </c>
@@ -1989,7 +2034,7 @@
         <v>126</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>120</v>
@@ -1998,7 +2043,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>129</v>
       </c>
@@ -2009,7 +2054,7 @@
         <v>118</v>
       </c>
       <c r="D17" s="13">
-        <v>43689</v>
+        <v>43693</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>120</v>
@@ -2018,7 +2063,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>129</v>
       </c>
@@ -2038,7 +2083,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>129</v>
       </c>
@@ -2048,7 +2093,7 @@
       <c r="C19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>435243</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -2058,7 +2103,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>129</v>
       </c>
@@ -2078,7 +2123,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>129</v>
       </c>
@@ -2098,7 +2143,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>129</v>
       </c>
@@ -2118,7 +2163,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>129</v>
       </c>
@@ -2138,7 +2183,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
@@ -2158,12 +2203,12 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>118</v>
@@ -2178,7 +2223,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>129</v>
       </c>
@@ -2196,7 +2241,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>145</v>
       </c>
@@ -2216,7 +2261,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>145</v>
       </c>
@@ -2233,7 +2278,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>145</v>
       </c>
@@ -2244,7 +2289,7 @@
         <v>125</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>120</v>
@@ -2253,9 +2298,9 @@
       <c r="G29" s="24"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>145</v>
@@ -2270,7 +2315,7 @@
       <c r="G30" s="24"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>145</v>
       </c>
@@ -2281,7 +2326,7 @@
         <v>126</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>120</v>
@@ -2290,7 +2335,7 @@
       <c r="G31" s="24"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>145</v>
       </c>
@@ -2301,7 +2346,7 @@
         <v>118</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>120</v>
@@ -2310,7 +2355,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>145</v>
       </c>
@@ -2321,7 +2366,7 @@
         <v>118</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>120</v>
@@ -2330,7 +2375,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>145</v>
       </c>
@@ -2341,7 +2386,7 @@
         <v>118</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>120</v>
@@ -2350,7 +2395,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>145</v>
       </c>
@@ -2370,7 +2415,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>145</v>
       </c>
@@ -2381,7 +2426,7 @@
         <v>118</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>120</v>
@@ -2390,7 +2435,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>145</v>
       </c>
@@ -2401,7 +2446,7 @@
         <v>118</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>120</v>
@@ -2410,7 +2455,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>145</v>
       </c>
@@ -2427,7 +2472,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>145</v>
       </c>
@@ -2444,7 +2489,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2455,7 +2500,7 @@
         <v>118</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>120</v>
@@ -2464,7 +2509,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>145</v>
       </c>
@@ -2484,7 +2529,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>145</v>
       </c>
@@ -2504,7 +2549,7 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>145</v>
       </c>
@@ -2524,7 +2569,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>145</v>
       </c>
@@ -2544,7 +2589,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>145</v>
       </c>
@@ -2564,7 +2609,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>145</v>
       </c>
@@ -2584,7 +2629,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>145</v>
       </c>
@@ -2604,7 +2649,7 @@
       <c r="G47" s="14"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>145</v>
       </c>
@@ -2615,7 +2660,7 @@
         <v>118</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>120</v>
@@ -2624,7 +2669,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>145</v>
       </c>
@@ -2644,7 +2689,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>145</v>
       </c>
@@ -2664,7 +2709,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>145</v>
       </c>
@@ -2682,9 +2727,9 @@
       <c r="G51" s="14"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>135</v>
@@ -2693,7 +2738,7 @@
         <v>132</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>120</v>
@@ -2702,9 +2747,9 @@
       <c r="G52" s="24"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>130</v>
@@ -2720,9 +2765,9 @@
       <c r="G53" s="24"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B54" s="22" t="s">
         <v>146</v>
@@ -2731,7 +2776,7 @@
         <v>125</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>120</v>
@@ -2740,12 +2785,12 @@
       <c r="G54" s="24"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>121</v>
@@ -2758,9 +2803,9 @@
       <c r="G55" s="24"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>146</v>
@@ -2769,7 +2814,7 @@
         <v>126</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>120</v>
@@ -2778,18 +2823,18 @@
       <c r="G56" s="24"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B57" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>259</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>264</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>120</v>
@@ -2798,18 +2843,18 @@
       <c r="G57" s="24"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B58" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>260</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>265</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>120</v>
@@ -2818,18 +2863,18 @@
       <c r="G58" s="24"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="C59" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="20" t="s">
         <v>261</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>266</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>120</v>
@@ -2838,9 +2883,9 @@
       <c r="G59" s="24"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>149</v>
@@ -2856,18 +2901,18 @@
       <c r="G60" s="24"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B61" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="20" t="s">
         <v>262</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>267</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>120</v>
@@ -2876,9 +2921,9 @@
       <c r="G61" s="24"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>151</v>
@@ -2887,7 +2932,7 @@
         <v>118</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>120</v>
@@ -2896,9 +2941,9 @@
       <c r="G62" s="24"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>152</v>
@@ -2914,9 +2959,9 @@
       <c r="G63" s="24"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>153</v>
@@ -2925,7 +2970,7 @@
         <v>118</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>120</v>
@@ -2934,9 +2979,9 @@
       <c r="G64" s="24"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>154</v>
@@ -2954,18 +2999,18 @@
       <c r="G65" s="24"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="20" t="s">
-        <v>270</v>
+      <c r="D66" s="29">
+        <v>63103</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>120</v>
@@ -2974,9 +3019,9 @@
       <c r="G66" s="24"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B67" s="22" t="s">
         <v>12</v>
@@ -2994,18 +3039,18 @@
       <c r="G67" s="24"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>120</v>
@@ -3014,9 +3059,9 @@
       <c r="G68" s="24"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B69" s="22" t="s">
         <v>158</v>
@@ -3025,7 +3070,7 @@
         <v>118</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>120</v>
@@ -3034,9 +3079,9 @@
       <c r="G69" s="24"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>159</v>
@@ -3045,7 +3090,7 @@
         <v>118</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>120</v>
@@ -3054,12 +3099,12 @@
       <c r="G70" s="24"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>118</v>
@@ -3074,18 +3119,18 @@
       <c r="G71" s="24"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>120</v>
@@ -3094,12 +3139,12 @@
       <c r="G72" s="24"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>118</v>
@@ -3111,18 +3156,18 @@
       <c r="G73" s="24"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>120</v>
@@ -3131,12 +3176,12 @@
       <c r="G74" s="24"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>118</v>
@@ -3148,18 +3193,18 @@
       <c r="G75" s="24"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>120</v>
@@ -3168,12 +3213,12 @@
       <c r="G76" s="24"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>133</v>
@@ -3188,9 +3233,9 @@
       <c r="G77" s="24"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B78" s="22" t="s">
         <v>130</v>
@@ -3205,7 +3250,7 @@
       <c r="G78" s="24"/>
       <c r="H78" s="9"/>
     </row>
-    <row customFormat="1" r="79" s="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>172</v>
       </c>
@@ -3224,7 +3269,7 @@
       <c r="F79" s="9"/>
       <c r="H79" s="15"/>
     </row>
-    <row customFormat="1" r="80" s="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>172</v>
       </c>
@@ -3243,7 +3288,7 @@
       <c r="F80" s="9"/>
       <c r="H80" s="15"/>
     </row>
-    <row customFormat="1" r="81" s="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>172</v>
       </c>
@@ -3260,7 +3305,7 @@
       <c r="F81" s="9"/>
       <c r="H81" s="15"/>
     </row>
-    <row customFormat="1" ht="29" r="82" s="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>172</v>
       </c>
@@ -3271,7 +3316,7 @@
         <v>125</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>120</v>
@@ -3279,18 +3324,18 @@
       <c r="F82" s="9"/>
       <c r="H82" s="15"/>
     </row>
-    <row customFormat="1" ht="29" r="83" s="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>120</v>
@@ -3298,9 +3343,9 @@
       <c r="F83" s="9"/>
       <c r="H83" s="15"/>
     </row>
-    <row customFormat="1" r="84" s="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B84" s="22" t="s">
         <v>172</v>
@@ -3315,7 +3360,7 @@
       <c r="F84" s="9"/>
       <c r="H84" s="15"/>
     </row>
-    <row customFormat="1" r="85" s="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>172</v>
       </c>
@@ -3326,7 +3371,7 @@
         <v>126</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>120</v>
@@ -3334,18 +3379,18 @@
       <c r="F85" s="9"/>
       <c r="H85" s="15"/>
     </row>
-    <row customFormat="1" ht="29" r="86" s="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>120</v>
@@ -3353,7 +3398,7 @@
       <c r="F86" s="9"/>
       <c r="H86" s="15"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>172</v>
       </c>
@@ -3373,7 +3418,7 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>172</v>
       </c>
@@ -3392,7 +3437,7 @@
       <c r="F88" s="9"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>172</v>
       </c>
@@ -3410,7 +3455,7 @@
       </c>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>172</v>
       </c>
@@ -3429,7 +3474,7 @@
       <c r="F90" s="9"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>172</v>
       </c>
@@ -3448,7 +3493,7 @@
       <c r="F91" s="9"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>172</v>
       </c>
@@ -3467,7 +3512,7 @@
       <c r="F92" s="9"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>172</v>
       </c>
@@ -3486,7 +3531,7 @@
       <c r="F93" s="9"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>172</v>
       </c>
@@ -3505,7 +3550,7 @@
       <c r="F94" s="9"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>172</v>
       </c>
@@ -3524,7 +3569,7 @@
       <c r="F95" s="9"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>172</v>
       </c>
@@ -3543,7 +3588,7 @@
       <c r="F96" s="9"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>172</v>
       </c>
@@ -3562,7 +3607,7 @@
       <c r="F97" s="9"/>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>172</v>
       </c>
@@ -3582,7 +3627,7 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>172</v>
       </c>
@@ -3602,7 +3647,7 @@
       <c r="G99" s="17"/>
       <c r="H99" s="19"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>172</v>
       </c>
@@ -3620,7 +3665,7 @@
       </c>
       <c r="F100" s="9"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>172</v>
       </c>
@@ -3639,7 +3684,7 @@
       <c r="F101" s="9"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>172</v>
       </c>
@@ -3658,7 +3703,7 @@
       <c r="F102" s="9"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>172</v>
       </c>
@@ -3677,7 +3722,7 @@
       <c r="F103" s="9"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>172</v>
       </c>
@@ -3695,7 +3740,7 @@
       </c>
       <c r="F104" s="9"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
         <v>172</v>
       </c>
@@ -3706,14 +3751,14 @@
         <v>118</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>172</v>
       </c>
@@ -3731,12 +3776,12 @@
       </c>
       <c r="F106" s="9"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>118</v>
@@ -3750,36 +3795,36 @@
       <c r="F107" s="9"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F108" s="9"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>120</v>
@@ -3787,18 +3832,18 @@
       <c r="F109" s="9"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>120</v>
@@ -3806,18 +3851,18 @@
       <c r="F110" s="9"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>120</v>
@@ -3825,18 +3870,18 @@
       <c r="F111" s="9"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>120</v>
@@ -3844,12 +3889,12 @@
       <c r="F112" s="9"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>118</v>
@@ -3862,18 +3907,18 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>120</v>
@@ -3882,30 +3927,30 @@
       <c r="G114" s="24"/>
       <c r="H114" s="24"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B115" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>309</v>
-      </c>
       <c r="E115" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>118</v>
@@ -3916,12 +3961,12 @@
       <c r="F116" s="9"/>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>118</v>
@@ -3935,18 +3980,18 @@
       <c r="F117" s="9"/>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>120</v>
@@ -3954,12 +3999,12 @@
       <c r="F118" s="9"/>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>118</v>
@@ -3972,12 +4017,12 @@
       </c>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>127</v>
@@ -3990,12 +4035,12 @@
       </c>
       <c r="F120" s="9"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>127</v>
@@ -4008,7 +4053,7 @@
       </c>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>172</v>
       </c>
@@ -4023,74 +4068,76 @@
       </c>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>186</v>
-      </c>
-      <c r="B123" s="22" t="s">
-        <v>135</v>
+        <v>234</v>
+      </c>
+      <c r="B123" t="s">
+        <v>338</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>186</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C124" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B124" t="s">
+        <v>339</v>
+      </c>
+      <c r="C124" t="s">
         <v>121</v>
       </c>
+      <c r="D124" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="E124" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F124" s="9"/>
     </row>
-    <row ht="29" r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>186</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>311</v>
+        <v>132</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D126" s="25"/>
       <c r="E126" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F126" s="9"/>
     </row>
-    <row ht="29" r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>186</v>
       </c>
@@ -4098,188 +4145,189 @@
         <v>196</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>248</v>
+      </c>
+      <c r="B128" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B128" s="22" t="s">
-        <v>196</v>
-      </c>
       <c r="C128" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>332</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D128" s="25"/>
       <c r="E128" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>186</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>29</v>
+        <v>126</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>305</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>186</v>
       </c>
       <c r="B130" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F130" s="9"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F131" s="9"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>186</v>
+      </c>
+      <c r="B132" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C132" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E130" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F130" s="9"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>187</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F131" s="9"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>187</v>
-      </c>
-      <c r="B132" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="E132" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F132" s="9"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>187</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>187</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F134" s="9"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>187</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>118</v>
       </c>
+      <c r="D135" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="E135" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>187</v>
       </c>
       <c r="B136" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F136" s="9"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>187</v>
+      </c>
+      <c r="B137" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F136" s="9"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>252</v>
-      </c>
-      <c r="B137" t="s">
-        <v>187</v>
-      </c>
       <c r="C137" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>187</v>
       </c>
@@ -4287,212 +4335,211 @@
         <v>188</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F138" s="9"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" t="s">
         <v>187</v>
       </c>
-      <c r="B139" s="22" t="s">
-        <v>188</v>
-      </c>
       <c r="C139" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>187</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>334</v>
+        <v>126</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F140" s="9"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>187</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D141" s="23">
-        <v>40397</v>
+      <c r="D141" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>187</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D142" s="9" t="s">
-        <v>193</v>
+      <c r="D142" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F142" s="9"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>187</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D143" s="9" t="s">
-        <v>194</v>
+      <c r="D143" s="23">
+        <v>40397</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>187</v>
       </c>
       <c r="B144" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>187</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>187</v>
+      </c>
+      <c r="B146" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C146" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E144" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F144" s="9"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>200</v>
-      </c>
-      <c r="B145" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F145" s="9"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>200</v>
-      </c>
-      <c r="B146" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="E146" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F146" s="9"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>200</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F147" s="9"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>200</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D148" s="22"/>
+        <v>132</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="E148" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F148" s="9"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E149" s="22" t="s">
-        <v>233</v>
+        <v>5</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B150" s="22" t="s">
         <v>130</v>
@@ -4506,332 +4553,322 @@
       </c>
       <c r="F150" s="9"/>
     </row>
-    <row ht="29" r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>215</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>120</v>
+        <v>233</v>
+      </c>
+      <c r="E151" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="F151" s="9"/>
     </row>
-    <row ht="29" r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>215</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="C152" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="9"/>
+    </row>
+    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>215</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C153" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D152" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F152" s="9"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>252</v>
-      </c>
-      <c r="B153" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D153" s="22"/>
-      <c r="E153" s="9" t="s">
-        <v>120</v>
+      <c r="D153" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E153" s="22" t="s">
+        <v>307</v>
       </c>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>215</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>120</v>
+        <v>308</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>308</v>
       </c>
       <c r="F154" s="9"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>248</v>
+      </c>
+      <c r="B155" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B155" s="22" t="s">
-        <v>201</v>
-      </c>
       <c r="C155" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D155" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>215</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>120</v>
+        <v>309</v>
+      </c>
+      <c r="E156" s="22" t="s">
+        <v>309</v>
       </c>
       <c r="F156" s="9"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>215</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D157" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>120</v>
+      <c r="D157" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="F157" s="9"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>215</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D158" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>120</v>
+      <c r="D158" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="F158" s="9"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>215</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>318</v>
+        <v>120</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F159" s="9"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>215</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C160" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="F160" s="9"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>215</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="F161" s="9"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>215</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>118</v>
       </c>
+      <c r="D162" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="E162" s="9" t="s">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="F162" s="9"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>215</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D163" s="20" t="s">
-        <v>319</v>
+      <c r="D163" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>120</v>
+        <v>311</v>
       </c>
       <c r="F163" s="9"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>215</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D164" s="26">
-        <f>D19</f>
-        <v>435243</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F164" s="9"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>215</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D165" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>120</v>
+      <c r="D165" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E165" s="20" t="s">
+        <v>313</v>
       </c>
       <c r="F165" s="9"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>215</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D166" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>120</v>
+        <v>132</v>
+      </c>
+      <c r="D166" s="29">
+        <v>435243</v>
+      </c>
+      <c r="E166" s="20" t="s">
+        <v>335</v>
       </c>
       <c r="F166" s="9"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>215</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="F167" s="9"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>215</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D168" s="20">
-        <v>100</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>120</v>
+      <c r="D168" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E168" s="20" t="s">
+        <v>315</v>
       </c>
       <c r="F168" s="9"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>215</v>
       </c>
       <c r="B169" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>118</v>
@@ -4844,105 +4881,117 @@
       </c>
       <c r="F169" s="9"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>215</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="D170" s="20">
+        <v>100</v>
+      </c>
+      <c r="E170" s="20">
+        <v>100</v>
       </c>
       <c r="F170" s="9"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>215</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>322</v>
+        <v>120</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F171" s="9"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>215</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="F172" s="9"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>215</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D173" s="27" t="s">
-        <v>336</v>
+      <c r="D173" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>215</v>
       </c>
       <c r="B174" s="22" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="F174" s="9"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="D175" s="30">
+        <v>12500</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>330</v>
       </c>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B176" s="22" t="s">
         <v>130</v>
@@ -4952,168 +5001,156 @@
       </c>
       <c r="F176" s="9"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D177" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F178" s="9"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>227</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>121</v>
+        <v>132</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="F179" s="9"/>
     </row>
-    <row ht="29" r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>227</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D180" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="E180" s="25" t="s">
-        <v>324</v>
+        <v>127</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="F180" s="9"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>227</v>
       </c>
-      <c r="B181" t="s">
-        <v>325</v>
+      <c r="B181" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>252</v>
-      </c>
-      <c r="B182" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="D182" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="E182" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="F182" s="9"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>230</v>
-      </c>
-      <c r="B183" s="22" t="s">
-        <v>130</v>
+        <v>227</v>
+      </c>
+      <c r="B183" t="s">
+        <v>319</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F183" s="9"/>
     </row>
-    <row ht="29" r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>227</v>
-      </c>
-      <c r="B184" s="22" t="s">
-        <v>221</v>
+        <v>248</v>
+      </c>
+      <c r="B184" t="s">
+        <v>230</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D184" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="E184" s="25" t="s">
-        <v>326</v>
+        <v>121</v>
       </c>
       <c r="F184" s="9"/>
     </row>
-    <row ht="29" r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="F185" s="9"/>
     </row>
-    <row ht="29" r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>227</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="D186" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E186" s="25" t="s">
+        <v>320</v>
       </c>
       <c r="F186" s="9"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>227</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>118</v>
@@ -5126,30 +5163,30 @@
       </c>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>227</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="F188" s="9"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>227</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>118</v>
@@ -5162,200 +5199,236 @@
       </c>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>227</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>327</v>
+        <v>231</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>327</v>
+        <v>231</v>
       </c>
       <c r="F190" s="9"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>227</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>227</v>
       </c>
       <c r="B192" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D192" s="23">
-        <v>43690</v>
-      </c>
-      <c r="E192" s="23">
-        <v>43690</v>
+      <c r="D192" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>321</v>
       </c>
       <c r="F192" s="9"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>227</v>
       </c>
       <c r="B193" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F193" s="9"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>227</v>
+      </c>
+      <c r="B194" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D194" s="23">
+        <v>43690</v>
+      </c>
+      <c r="E194" s="23">
+        <v>43690</v>
+      </c>
+      <c r="F194" s="9"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>227</v>
+      </c>
+      <c r="B195" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F193" s="9"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>229</v>
-      </c>
-      <c r="B194" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D194" t="s">
-        <v>229</v>
-      </c>
-      <c r="E194" t="s">
-        <v>229</v>
-      </c>
-      <c r="F194" s="9"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>229</v>
-      </c>
-      <c r="B195" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F195" s="9"/>
     </row>
-    <row ht="29" r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>236</v>
-      </c>
-      <c r="B196" t="s">
-        <v>330</v>
+        <v>229</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D196" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="E196" s="25" t="s">
-        <v>331</v>
+      <c r="D196" t="s">
+        <v>229</v>
+      </c>
+      <c r="E196" t="s">
+        <v>229</v>
       </c>
       <c r="F196" s="9"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>229</v>
+      </c>
+      <c r="B197" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F197" s="9"/>
+    </row>
+    <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>234</v>
+      </c>
+      <c r="B198" t="s">
+        <v>324</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D198" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E198" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="F198" s="9"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>234</v>
+      </c>
+      <c r="B199" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C199" t="s">
+        <v>119</v>
+      </c>
+      <c r="D199" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="E199" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="F199" s="9"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>234</v>
+      </c>
+      <c r="B200" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="B197" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C197" t="s">
-        <v>119</v>
-      </c>
-      <c r="D197" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="E197" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="F197" s="9"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>236</v>
-      </c>
-      <c r="B198" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="C200" t="s">
         <v>121</v>
       </c>
-      <c r="F198" s="9"/>
+      <c r="F200" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H103" xr:uid="{08FCDD39-550A-416F-A1E8-17A8732FCA8E}"/>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G36" type="list" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G36" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G98:H98 G35 G113:H113" type="list" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G98:H98 G35 G113:H113" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G87 G32" type="list" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G87 G32" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D24:D25 G37 G39:G43 G33 G24:G25" type="list" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 G37 G39:G43 G33 G24:G25" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G23 D21" type="list" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23 D21" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D48" xr:uid="{BBB72132-E006-4FE8-AFC9-B3A2293BDA48}"/>
-    <hyperlink r:id="rId2" ref="D70" xr:uid="{6EC5750C-F015-4F21-8756-BB0C6882AD48}"/>
+    <hyperlink ref="D48" r:id="rId1" xr:uid="{BBB72132-E006-4FE8-AFC9-B3A2293BDA48}"/>
+    <hyperlink ref="D70" r:id="rId2" xr:uid="{6EC5750C-F015-4F21-8756-BB0C6882AD48}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="32.7265625" collapsed="true"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5384,7 +5457,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
@@ -5413,7 +5486,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -5442,7 +5515,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>82</v>
       </c>
@@ -5465,7 +5538,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>83</v>
       </c>
@@ -5488,7 +5561,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>84</v>
       </c>
@@ -5508,7 +5581,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>85</v>
       </c>
@@ -5525,7 +5598,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
@@ -5539,7 +5612,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
@@ -5553,7 +5626,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
@@ -5561,10 +5634,10 @@
         <v>94</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
@@ -5572,10 +5645,10 @@
         <v>95</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
@@ -5583,19 +5656,21 @@
         <v>96</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
@@ -5604,7 +5679,7 @@
       </c>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -5613,7 +5688,7 @@
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
@@ -5622,7 +5697,7 @@
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
@@ -5631,7 +5706,7 @@
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
@@ -5640,7 +5715,7 @@
       </c>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -5649,7 +5724,7 @@
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
@@ -5658,7 +5733,7 @@
       </c>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
@@ -5667,7 +5742,7 @@
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
@@ -5676,7 +5751,7 @@
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>51</v>
       </c>
@@ -5685,7 +5760,7 @@
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>6</v>
       </c>
@@ -5694,149 +5769,149 @@
       </c>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssahoo43\D_Drive\eAppBHFAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D5D88C-FF44-4810-8CB6-DBBB91F2EA32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9865D419-B2A8-4FE4-A507-50DCE68E5D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12756" windowHeight="2868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
-    <sheet name="TestData" sheetId="4" r:id="rId2"/>
-    <sheet name="ListValues" sheetId="3" r:id="rId3"/>
+    <sheet name="FRA" sheetId="4" r:id="rId2"/>
+    <sheet name="FA" sheetId="5" r:id="rId3"/>
+    <sheet name="ListValues" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestData!$A$2:$H$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FRA!$A$2:$G$103</definedName>
     <definedName name="P_Country">ListValues!$D$2:$D$24</definedName>
     <definedName name="P_Frequency">ListValues!$G$2:$G$5</definedName>
     <definedName name="P_Gender">ListValues!$E$2:$E$3</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="348">
   <si>
     <t>SLNo</t>
   </si>
@@ -1077,6 +1078,18 @@
   </si>
   <si>
     <t>Variable Prime Options - NY</t>
+  </si>
+  <si>
+    <t>TestData Sheet</t>
+  </si>
+  <si>
+    <t>Variable Prime Options</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>FA</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1214,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1245,7 +1258,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1595,19 +1607,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1615,10 +1629,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1626,10 +1643,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1637,10 +1657,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1648,10 +1671,13 @@
         <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1659,10 +1685,13 @@
         <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1670,12 +1699,15 @@
         <v>242</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>347</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
   </dataValidations>
@@ -1687,26 +1719,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.44140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.44140625" style="21" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="35.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="35.33203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1724,11 +1755,8 @@
       <c r="G1" s="3">
         <v>4</v>
       </c>
-      <c r="H1" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
@@ -1750,15 +1778,12 @@
       <c r="G2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>241</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1774,11 +1799,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>331</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1797,11 +1822,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>238</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1818,11 +1843,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>239</v>
       </c>
       <c r="C6" t="s">
@@ -1842,11 +1867,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>239</v>
       </c>
       <c r="C7" t="s">
@@ -1865,11 +1890,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>239</v>
       </c>
       <c r="C8" t="s">
@@ -1886,11 +1911,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1901,13 +1926,12 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>342</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1919,20 +1943,16 @@
       <c r="E10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="9" t="str">
-        <f>UPPER(C10)</f>
-        <v>SELECTPLAN</v>
-      </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1943,13 +1963,12 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1965,13 +1984,12 @@
       <c r="G12" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1984,13 +2002,12 @@
       <c r="G13" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2004,13 +2021,12 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2021,13 +2037,12 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -2041,13 +2056,12 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>195</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2061,13 +2075,12 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -2081,13 +2094,12 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>137</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2101,13 +2113,12 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>138</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -2121,13 +2132,12 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>139</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2141,13 +2151,12 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>124</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -2161,13 +2170,12 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>140</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2181,13 +2189,12 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>141</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -2201,13 +2208,12 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>247</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2221,13 +2227,12 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -2239,13 +2244,12 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -2259,13 +2263,12 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -2275,14 +2278,13 @@
         <v>120</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>146</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -2295,14 +2297,13 @@
         <v>120</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -2312,14 +2313,13 @@
         <v>120</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -2332,14 +2332,13 @@
         <v>120</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>146</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -2353,13 +2352,12 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>147</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -2373,13 +2371,12 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>148</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2393,13 +2390,12 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -2413,13 +2409,12 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>149</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -2433,13 +2428,12 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>150</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -2453,13 +2447,12 @@
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>151</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2470,13 +2463,12 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>152</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -2487,13 +2479,12 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>153</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -2507,13 +2498,12 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>154</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -2527,13 +2517,12 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>155</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2547,19 +2536,18 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E43" s="9" t="s">
@@ -2567,13 +2555,12 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -2587,13 +2574,12 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>156</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -2607,19 +2593,18 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>157</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="19" t="s">
         <v>169</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -2627,19 +2612,18 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>158</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>170</v>
       </c>
       <c r="E47" s="9" t="s">
@@ -2647,19 +2631,18 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>159</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>245</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -2667,19 +2650,18 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>160</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E49" s="9" t="s">
@@ -2687,19 +2669,18 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>161</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -2707,403 +2688,382 @@
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="20"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="19" t="s">
         <v>252</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F52" s="9"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="20"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F53" s="9"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="21" t="s">
         <v>146</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="19" t="s">
         <v>253</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F54" s="9"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="21" t="s">
         <v>251</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="20"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F55" s="9"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="21" t="s">
         <v>146</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="19" t="s">
         <v>253</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F56" s="9"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="21" t="s">
         <v>254</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="19" t="s">
         <v>259</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F57" s="9"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="21" t="s">
         <v>255</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F58" s="9"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G58" s="23"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="21" t="s">
         <v>256</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="19" t="s">
         <v>261</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F59" s="9"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="21" t="s">
         <v>149</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="20"/>
+      <c r="D60" s="19"/>
       <c r="E60" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F60" s="9"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G60" s="23"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="21" t="s">
         <v>257</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="19" t="s">
         <v>262</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F61" s="9"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G61" s="23"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="21" t="s">
         <v>151</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="19" t="s">
         <v>263</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F62" s="9"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="21" t="s">
         <v>152</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="20"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F63" s="9"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G63" s="23"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="21" t="s">
         <v>153</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="19" t="s">
         <v>264</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F64" s="9"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="9"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G64" s="23"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="21" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="19" t="s">
         <v>54</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F65" s="9"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="21" t="s">
         <v>258</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="28">
         <v>63103</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F66" s="9"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G66" s="23"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F67" s="9"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G67" s="23"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="21" t="s">
         <v>265</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="19" t="s">
         <v>267</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F68" s="9"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G68" s="23"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="21" t="s">
         <v>158</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="19" t="s">
         <v>268</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F69" s="9"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G69" s="23"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="21" t="s">
         <v>159</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="20" t="s">
         <v>266</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F70" s="9"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G70" s="23"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="21" t="s">
         <v>269</v>
       </c>
       <c r="C71" s="9" t="s">
@@ -3116,14 +3076,13 @@
         <v>120</v>
       </c>
       <c r="F71" s="9"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G71" s="23"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="21" t="s">
         <v>270</v>
       </c>
       <c r="C72" s="9" t="s">
@@ -3136,14 +3095,13 @@
         <v>120</v>
       </c>
       <c r="F72" s="9"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G72" s="23"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="21" t="s">
         <v>271</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -3153,14 +3111,13 @@
         <v>120</v>
       </c>
       <c r="F73" s="9"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G73" s="23"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="21" t="s">
         <v>272</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -3173,14 +3130,13 @@
         <v>120</v>
       </c>
       <c r="F74" s="9"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G74" s="23"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="21" t="s">
         <v>273</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -3190,14 +3146,13 @@
         <v>120</v>
       </c>
       <c r="F75" s="9"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G75" s="23"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="21" t="s">
         <v>274</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -3210,14 +3165,13 @@
         <v>120</v>
       </c>
       <c r="F76" s="9"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G76" s="23"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="21" t="s">
         <v>247</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -3230,14 +3184,13 @@
         <v>120</v>
       </c>
       <c r="F77" s="9"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G77" s="23"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -3247,14 +3200,13 @@
         <v>120</v>
       </c>
       <c r="F78" s="9"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="9"/>
-    </row>
-    <row r="79" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="23"/>
+    </row>
+    <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C79" s="15" t="s">
@@ -3267,13 +3219,12 @@
         <v>120</v>
       </c>
       <c r="F79" s="9"/>
-      <c r="H79" s="15"/>
-    </row>
-    <row r="80" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="21" t="s">
         <v>179</v>
       </c>
       <c r="C80" s="9" t="s">
@@ -3286,13 +3237,12 @@
         <v>120</v>
       </c>
       <c r="F80" s="9"/>
-      <c r="H80" s="15"/>
-    </row>
-    <row r="81" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C81" s="9" t="s">
@@ -3303,51 +3253,48 @@
         <v>120</v>
       </c>
       <c r="F81" s="9"/>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" spans="1:8" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:7" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>156</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="24" t="s">
         <v>278</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F82" s="9"/>
-      <c r="H82" s="15"/>
-    </row>
-    <row r="83" spans="1:8" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="21" t="s">
         <v>280</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="24" t="s">
         <v>279</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F83" s="9"/>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C84" s="9" t="s">
@@ -3358,13 +3305,12 @@
         <v>120</v>
       </c>
       <c r="F84" s="9"/>
-      <c r="H84" s="15"/>
-    </row>
-    <row r="85" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="21" t="s">
         <v>146</v>
       </c>
       <c r="C85" s="9" t="s">
@@ -3377,32 +3323,30 @@
         <v>120</v>
       </c>
       <c r="F85" s="9"/>
-      <c r="H85" s="15"/>
-    </row>
-    <row r="86" spans="1:8" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:7" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="21" t="s">
         <v>281</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="24" t="s">
         <v>283</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F86" s="9"/>
-      <c r="H86" s="15"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="21" t="s">
         <v>173</v>
       </c>
       <c r="C87" s="9" t="s">
@@ -3416,13 +3360,12 @@
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="21" t="s">
         <v>174</v>
       </c>
       <c r="C88" s="9" t="s">
@@ -3435,13 +3378,12 @@
         <v>120</v>
       </c>
       <c r="F88" s="9"/>
-      <c r="H88" s="9"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="21" t="s">
         <v>175</v>
       </c>
       <c r="C89" s="9" t="s">
@@ -3455,11 +3397,11 @@
       </c>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="21" t="s">
         <v>146</v>
       </c>
       <c r="C90" s="9" t="s">
@@ -3472,13 +3414,12 @@
         <v>120</v>
       </c>
       <c r="F90" s="9"/>
-      <c r="H90" s="9"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="21" t="s">
         <v>147</v>
       </c>
       <c r="C91" s="9" t="s">
@@ -3491,13 +3432,12 @@
         <v>120</v>
       </c>
       <c r="F91" s="9"/>
-      <c r="H91" s="9"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="21" t="s">
         <v>148</v>
       </c>
       <c r="C92" s="9" t="s">
@@ -3510,13 +3450,12 @@
         <v>120</v>
       </c>
       <c r="F92" s="9"/>
-      <c r="H92" s="9"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="9" t="s">
@@ -3529,13 +3468,12 @@
         <v>120</v>
       </c>
       <c r="F93" s="9"/>
-      <c r="H93" s="9"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="21" t="s">
         <v>176</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -3548,13 +3486,12 @@
         <v>120</v>
       </c>
       <c r="F94" s="9"/>
-      <c r="H94" s="9"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="21" t="s">
         <v>156</v>
       </c>
       <c r="C95" s="9" t="s">
@@ -3567,51 +3504,48 @@
         <v>120</v>
       </c>
       <c r="F95" s="9"/>
-      <c r="H95" s="9"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="19" t="s">
         <v>169</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F96" s="9"/>
-      <c r="H96" s="9"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="21" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="19" t="s">
         <v>170</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F97" s="9"/>
-      <c r="H97" s="9"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="21" t="s">
         <v>149</v>
       </c>
       <c r="C98" s="9" t="s">
@@ -3625,13 +3559,12 @@
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="21" t="s">
         <v>150</v>
       </c>
       <c r="C99" s="9" t="s">
@@ -3645,13 +3578,12 @@
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="17"/>
-      <c r="H99" s="19"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="21" t="s">
         <v>151</v>
       </c>
       <c r="C100" s="9" t="s">
@@ -3665,11 +3597,11 @@
       </c>
       <c r="F100" s="9"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="21" t="s">
         <v>152</v>
       </c>
       <c r="C101" s="9" t="s">
@@ -3682,13 +3614,12 @@
         <v>120</v>
       </c>
       <c r="F101" s="9"/>
-      <c r="H101" s="9"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="21" t="s">
         <v>154</v>
       </c>
       <c r="C102" s="9" t="s">
@@ -3701,13 +3632,12 @@
         <v>120</v>
       </c>
       <c r="F102" s="9"/>
-      <c r="H102" s="9"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="21" t="s">
         <v>155</v>
       </c>
       <c r="C103" s="9" t="s">
@@ -3720,19 +3650,18 @@
         <v>120</v>
       </c>
       <c r="F103" s="9"/>
-      <c r="H103" s="9"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="21" t="s">
         <v>177</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E104" s="9" t="s">
@@ -3740,11 +3669,11 @@
       </c>
       <c r="F104" s="9"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="21" t="s">
         <v>178</v>
       </c>
       <c r="C105" s="9" t="s">
@@ -3758,11 +3687,11 @@
       </c>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="21" t="s">
         <v>211</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -3776,11 +3705,11 @@
       </c>
       <c r="F106" s="9"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="21" t="s">
         <v>284</v>
       </c>
       <c r="C107" s="9" t="s">
@@ -3793,13 +3722,12 @@
         <v>120</v>
       </c>
       <c r="F107" s="9"/>
-      <c r="H107" s="9"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="21" t="s">
         <v>285</v>
       </c>
       <c r="C108" s="9" t="s">
@@ -3813,11 +3741,11 @@
       </c>
       <c r="F108" s="9"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="21" t="s">
         <v>286</v>
       </c>
       <c r="C109" s="9" t="s">
@@ -3830,13 +3758,12 @@
         <v>120</v>
       </c>
       <c r="F109" s="9"/>
-      <c r="H109" s="9"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="21" t="s">
         <v>289</v>
       </c>
       <c r="C110" s="9" t="s">
@@ -3849,89 +3776,84 @@
         <v>120</v>
       </c>
       <c r="F110" s="9"/>
-      <c r="H110" s="9"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="21" t="s">
         <v>290</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="19" t="s">
         <v>291</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F111" s="9"/>
-      <c r="H111" s="9"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="21" t="s">
         <v>294</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D112" s="19" t="s">
         <v>292</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F112" s="9"/>
-      <c r="H112" s="9"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="21" t="s">
         <v>295</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D113" s="24"/>
+      <c r="D113" s="23"/>
       <c r="E113" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="21" t="s">
         <v>296</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="D114" s="23" t="s">
         <v>293</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F114" s="9"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G114" s="23"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="21" t="s">
         <v>297</v>
       </c>
       <c r="C115" s="9" t="s">
@@ -3945,11 +3867,11 @@
       </c>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="21" t="s">
         <v>298</v>
       </c>
       <c r="C116" s="9" t="s">
@@ -3959,13 +3881,12 @@
         <v>120</v>
       </c>
       <c r="F116" s="9"/>
-      <c r="H116" s="9"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B117" s="22" t="s">
+      <c r="B117" s="21" t="s">
         <v>299</v>
       </c>
       <c r="C117" s="9" t="s">
@@ -3978,13 +3899,12 @@
         <v>120</v>
       </c>
       <c r="F117" s="9"/>
-      <c r="H117" s="9"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="B118" s="21" t="s">
         <v>300</v>
       </c>
       <c r="C118" s="9" t="s">
@@ -3997,19 +3917,18 @@
         <v>120</v>
       </c>
       <c r="F118" s="9"/>
-      <c r="H118" s="9"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B119" s="21" t="s">
         <v>301</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D119" s="20" t="s">
+      <c r="D119" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E119" s="9" t="s">
@@ -4017,11 +3936,11 @@
       </c>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="21" t="s">
         <v>302</v>
       </c>
       <c r="C120" s="9" t="s">
@@ -4035,11 +3954,11 @@
       </c>
       <c r="F120" s="9"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="21" t="s">
         <v>304</v>
       </c>
       <c r="C121" s="9" t="s">
@@ -4053,11 +3972,11 @@
       </c>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B122" s="22" t="s">
+      <c r="B122" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C122" s="9" t="s">
@@ -4068,7 +3987,7 @@
       </c>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>234</v>
       </c>
@@ -4086,7 +4005,7 @@
       </c>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>234</v>
       </c>
@@ -4104,11 +4023,11 @@
       </c>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>186</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C125" s="9" t="s">
@@ -4122,11 +4041,11 @@
       </c>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>186</v>
       </c>
-      <c r="B126" s="22" t="s">
+      <c r="B126" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -4137,17 +4056,17 @@
       </c>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>186</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="21" t="s">
         <v>196</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="24" t="s">
         <v>305</v>
       </c>
       <c r="E127" s="9" t="s">
@@ -4155,17 +4074,17 @@
       </c>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>248</v>
       </c>
-      <c r="B128" s="22" t="s">
+      <c r="B128" s="21" t="s">
         <v>186</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D128" s="25"/>
+      <c r="D128" s="24"/>
       <c r="E128" s="9" t="s">
         <v>120</v>
       </c>
@@ -4175,13 +4094,13 @@
       <c r="A129" t="s">
         <v>186</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="21" t="s">
         <v>196</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D129" s="25" t="s">
+      <c r="D129" s="24" t="s">
         <v>305</v>
       </c>
       <c r="E129" s="9" t="s">
@@ -4193,7 +4112,7 @@
       <c r="A130" t="s">
         <v>186</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="21" t="s">
         <v>196</v>
       </c>
       <c r="C130" s="9" t="s">
@@ -4211,7 +4130,7 @@
       <c r="A131" t="s">
         <v>186</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="B131" s="21" t="s">
         <v>185</v>
       </c>
       <c r="C131" s="9" t="s">
@@ -4229,7 +4148,7 @@
       <c r="A132" t="s">
         <v>186</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="B132" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C132" s="9" t="s">
@@ -4244,7 +4163,7 @@
       <c r="A133" t="s">
         <v>187</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C133" s="9" t="s">
@@ -4262,7 +4181,7 @@
       <c r="A134" t="s">
         <v>187</v>
       </c>
-      <c r="B134" s="22" t="s">
+      <c r="B134" s="21" t="s">
         <v>188</v>
       </c>
       <c r="C134" s="9" t="s">
@@ -4280,7 +4199,7 @@
       <c r="A135" t="s">
         <v>187</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="21" t="s">
         <v>197</v>
       </c>
       <c r="C135" s="9" t="s">
@@ -4298,7 +4217,7 @@
       <c r="A136" t="s">
         <v>187</v>
       </c>
-      <c r="B136" s="22" t="s">
+      <c r="B136" s="21" t="s">
         <v>198</v>
       </c>
       <c r="C136" s="9" t="s">
@@ -4316,7 +4235,7 @@
       <c r="A137" t="s">
         <v>187</v>
       </c>
-      <c r="B137" s="22" t="s">
+      <c r="B137" s="21" t="s">
         <v>188</v>
       </c>
       <c r="C137" s="9" t="s">
@@ -4331,7 +4250,7 @@
       <c r="A138" t="s">
         <v>187</v>
       </c>
-      <c r="B138" s="22" t="s">
+      <c r="B138" s="21" t="s">
         <v>188</v>
       </c>
       <c r="C138" s="9" t="s">
@@ -4364,7 +4283,7 @@
       <c r="A140" t="s">
         <v>187</v>
       </c>
-      <c r="B140" s="22" t="s">
+      <c r="B140" s="21" t="s">
         <v>188</v>
       </c>
       <c r="C140" s="9" t="s">
@@ -4382,7 +4301,7 @@
       <c r="A141" t="s">
         <v>187</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="21" t="s">
         <v>188</v>
       </c>
       <c r="C141" s="9" t="s">
@@ -4400,7 +4319,7 @@
       <c r="A142" t="s">
         <v>187</v>
       </c>
-      <c r="B142" s="22" t="s">
+      <c r="B142" s="21" t="s">
         <v>189</v>
       </c>
       <c r="C142" s="9" t="s">
@@ -4418,13 +4337,13 @@
       <c r="A143" t="s">
         <v>187</v>
       </c>
-      <c r="B143" s="22" t="s">
+      <c r="B143" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D143" s="23">
+      <c r="D143" s="22">
         <v>40397</v>
       </c>
       <c r="E143" s="9" t="s">
@@ -4436,7 +4355,7 @@
       <c r="A144" t="s">
         <v>187</v>
       </c>
-      <c r="B144" s="22" t="s">
+      <c r="B144" s="21" t="s">
         <v>124</v>
       </c>
       <c r="C144" s="9" t="s">
@@ -4454,7 +4373,7 @@
       <c r="A145" t="s">
         <v>187</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="21" t="s">
         <v>191</v>
       </c>
       <c r="C145" s="9" t="s">
@@ -4472,7 +4391,7 @@
       <c r="A146" t="s">
         <v>187</v>
       </c>
-      <c r="B146" s="22" t="s">
+      <c r="B146" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C146" s="9" t="s">
@@ -4487,13 +4406,13 @@
       <c r="A147" t="s">
         <v>200</v>
       </c>
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D147" s="22" t="s">
+      <c r="D147" s="21" t="s">
         <v>232</v>
       </c>
       <c r="E147" s="9" t="s">
@@ -4505,13 +4424,13 @@
       <c r="A148" t="s">
         <v>200</v>
       </c>
-      <c r="B148" s="22" t="s">
+      <c r="B148" s="21" t="s">
         <v>199</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="D148" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E148" s="9" t="s">
@@ -4523,13 +4442,13 @@
       <c r="A149" t="s">
         <v>200</v>
       </c>
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="21" t="s">
         <v>199</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="D149" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E149" s="9" t="s">
@@ -4541,13 +4460,13 @@
       <c r="A150" t="s">
         <v>200</v>
       </c>
-      <c r="B150" s="22" t="s">
+      <c r="B150" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D150" s="22"/>
+      <c r="D150" s="21"/>
       <c r="E150" s="9" t="s">
         <v>120</v>
       </c>
@@ -4557,16 +4476,16 @@
       <c r="A151" t="s">
         <v>215</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="D151" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E151" s="22" t="s">
+      <c r="E151" s="21" t="s">
         <v>233</v>
       </c>
       <c r="F151" s="9"/>
@@ -4575,30 +4494,30 @@
       <c r="A152" t="s">
         <v>215</v>
       </c>
-      <c r="B152" s="22" t="s">
+      <c r="B152" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
       <c r="F152" s="9"/>
     </row>
     <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>215</v>
       </c>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="21" t="s">
         <v>204</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D153" s="22" t="s">
+      <c r="D153" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="E153" s="22" t="s">
+      <c r="E153" s="21" t="s">
         <v>307</v>
       </c>
       <c r="F153" s="9"/>
@@ -4607,16 +4526,16 @@
       <c r="A154" t="s">
         <v>215</v>
       </c>
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="21" t="s">
         <v>209</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="D154" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="E154" s="22" t="s">
+      <c r="E154" s="21" t="s">
         <v>308</v>
       </c>
       <c r="F154" s="9"/>
@@ -4625,30 +4544,30 @@
       <c r="A155" t="s">
         <v>248</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="21" t="s">
         <v>215</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
       <c r="F155" s="9"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>215</v>
       </c>
-      <c r="B156" s="22" t="s">
+      <c r="B156" s="21" t="s">
         <v>211</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D156" s="22" t="s">
+      <c r="D156" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="E156" s="22" t="s">
+      <c r="E156" s="21" t="s">
         <v>309</v>
       </c>
       <c r="F156" s="9"/>
@@ -4657,16 +4576,16 @@
       <c r="A157" t="s">
         <v>215</v>
       </c>
-      <c r="B157" s="22" t="s">
+      <c r="B157" s="21" t="s">
         <v>201</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D157" s="22" t="s">
+      <c r="D157" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E157" s="22" t="s">
+      <c r="E157" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F157" s="9"/>
@@ -4675,16 +4594,16 @@
       <c r="A158" t="s">
         <v>215</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="21" t="s">
         <v>202</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="D158" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E158" s="22" t="s">
+      <c r="E158" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F158" s="9"/>
@@ -4693,7 +4612,7 @@
       <c r="A159" t="s">
         <v>215</v>
       </c>
-      <c r="B159" s="22" t="s">
+      <c r="B159" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C159" s="9" t="s">
@@ -4711,7 +4630,7 @@
       <c r="A160" t="s">
         <v>215</v>
       </c>
-      <c r="B160" s="22" t="s">
+      <c r="B160" s="21" t="s">
         <v>175</v>
       </c>
       <c r="C160" s="9" t="s">
@@ -4729,7 +4648,7 @@
       <c r="A161" t="s">
         <v>215</v>
       </c>
-      <c r="B161" s="22" t="s">
+      <c r="B161" s="21" t="s">
         <v>204</v>
       </c>
       <c r="C161" s="9" t="s">
@@ -4747,7 +4666,7 @@
       <c r="A162" t="s">
         <v>215</v>
       </c>
-      <c r="B162" s="22" t="s">
+      <c r="B162" s="21" t="s">
         <v>147</v>
       </c>
       <c r="C162" s="9" t="s">
@@ -4765,7 +4684,7 @@
       <c r="A163" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="22" t="s">
+      <c r="B163" s="21" t="s">
         <v>205</v>
       </c>
       <c r="C163" s="9" t="s">
@@ -4783,7 +4702,7 @@
       <c r="A164" t="s">
         <v>215</v>
       </c>
-      <c r="B164" s="22" t="s">
+      <c r="B164" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C164" s="9" t="s">
@@ -4795,16 +4714,16 @@
       <c r="A165" t="s">
         <v>215</v>
       </c>
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="21" t="s">
         <v>157</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D165" s="20" t="s">
+      <c r="D165" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="E165" s="20" t="s">
+      <c r="E165" s="19" t="s">
         <v>313</v>
       </c>
       <c r="F165" s="9"/>
@@ -4813,16 +4732,16 @@
       <c r="A166" t="s">
         <v>215</v>
       </c>
-      <c r="B166" s="22" t="s">
+      <c r="B166" s="21" t="s">
         <v>137</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D166" s="29">
+      <c r="D166" s="28">
         <v>435243</v>
       </c>
-      <c r="E166" s="20" t="s">
+      <c r="E166" s="19" t="s">
         <v>335</v>
       </c>
       <c r="F166" s="9"/>
@@ -4831,7 +4750,7 @@
       <c r="A167" t="s">
         <v>215</v>
       </c>
-      <c r="B167" s="22" t="s">
+      <c r="B167" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C167" s="9" t="s">
@@ -4849,16 +4768,16 @@
       <c r="A168" t="s">
         <v>215</v>
       </c>
-      <c r="B168" s="22" t="s">
+      <c r="B168" s="21" t="s">
         <v>207</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D168" s="20" t="s">
+      <c r="D168" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="E168" s="20" t="s">
+      <c r="E168" s="19" t="s">
         <v>315</v>
       </c>
       <c r="F168" s="9"/>
@@ -4867,7 +4786,7 @@
       <c r="A169" t="s">
         <v>215</v>
       </c>
-      <c r="B169" s="22" t="s">
+      <c r="B169" s="21" t="s">
         <v>208</v>
       </c>
       <c r="C169" s="9" t="s">
@@ -4885,16 +4804,16 @@
       <c r="A170" t="s">
         <v>215</v>
       </c>
-      <c r="B170" s="22" t="s">
+      <c r="B170" s="21" t="s">
         <v>209</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D170" s="20">
+      <c r="D170" s="19">
         <v>100</v>
       </c>
-      <c r="E170" s="20">
+      <c r="E170" s="19">
         <v>100</v>
       </c>
       <c r="F170" s="9"/>
@@ -4903,7 +4822,7 @@
       <c r="A171" t="s">
         <v>215</v>
       </c>
-      <c r="B171" s="22" t="s">
+      <c r="B171" s="21" t="s">
         <v>210</v>
       </c>
       <c r="C171" s="9" t="s">
@@ -4921,7 +4840,7 @@
       <c r="A172" t="s">
         <v>215</v>
       </c>
-      <c r="B172" s="22" t="s">
+      <c r="B172" s="21" t="s">
         <v>211</v>
       </c>
       <c r="C172" s="9" t="s">
@@ -4939,7 +4858,7 @@
       <c r="A173" t="s">
         <v>215</v>
       </c>
-      <c r="B173" s="22" t="s">
+      <c r="B173" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C173" s="9" t="s">
@@ -4957,7 +4876,7 @@
       <c r="A174" t="s">
         <v>215</v>
       </c>
-      <c r="B174" s="22" t="s">
+      <c r="B174" s="21" t="s">
         <v>213</v>
       </c>
       <c r="C174" s="9" t="s">
@@ -4975,16 +4894,16 @@
       <c r="A175" t="s">
         <v>215</v>
       </c>
-      <c r="B175" s="22" t="s">
+      <c r="B175" s="21" t="s">
         <v>214</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D175" s="30">
+      <c r="D175" s="29">
         <v>12500</v>
       </c>
-      <c r="E175" s="26" t="s">
+      <c r="E175" s="25" t="s">
         <v>330</v>
       </c>
       <c r="F175" s="9"/>
@@ -4993,7 +4912,7 @@
       <c r="A176" t="s">
         <v>215</v>
       </c>
-      <c r="B176" s="22" t="s">
+      <c r="B176" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C176" s="9" t="s">
@@ -5005,7 +4924,7 @@
       <c r="A177" t="s">
         <v>230</v>
       </c>
-      <c r="B177" s="22" t="s">
+      <c r="B177" s="21" t="s">
         <v>317</v>
       </c>
       <c r="C177" s="9" t="s">
@@ -5017,7 +4936,7 @@
       <c r="A178" t="s">
         <v>230</v>
       </c>
-      <c r="B178" s="22" t="s">
+      <c r="B178" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C178" s="9" t="s">
@@ -5029,7 +4948,7 @@
       <c r="A179" t="s">
         <v>227</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C179" s="9" t="s">
@@ -5047,7 +4966,7 @@
       <c r="A180" t="s">
         <v>227</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="21" t="s">
         <v>218</v>
       </c>
       <c r="C180" s="9" t="s">
@@ -5065,7 +4984,7 @@
       <c r="A181" t="s">
         <v>227</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C181" s="9" t="s">
@@ -5077,16 +4996,16 @@
       <c r="A182" t="s">
         <v>227</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="21" t="s">
         <v>219</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D182" s="25" t="s">
+      <c r="D182" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="E182" s="25" t="s">
+      <c r="E182" s="24" t="s">
         <v>318</v>
       </c>
       <c r="F182" s="9"/>
@@ -5119,7 +5038,7 @@
       <c r="A185" t="s">
         <v>230</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="B185" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C185" s="9" t="s">
@@ -5131,16 +5050,16 @@
       <c r="A186" t="s">
         <v>227</v>
       </c>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="21" t="s">
         <v>221</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D186" s="25" t="s">
+      <c r="D186" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="E186" s="25" t="s">
+      <c r="E186" s="24" t="s">
         <v>320</v>
       </c>
       <c r="F186" s="9"/>
@@ -5149,7 +5068,7 @@
       <c r="A187" t="s">
         <v>227</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="21" t="s">
         <v>219</v>
       </c>
       <c r="C187" s="9" t="s">
@@ -5167,7 +5086,7 @@
       <c r="A188" t="s">
         <v>227</v>
       </c>
-      <c r="B188" s="22" t="s">
+      <c r="B188" s="21" t="s">
         <v>220</v>
       </c>
       <c r="C188" s="9" t="s">
@@ -5185,7 +5104,7 @@
       <c r="A189" t="s">
         <v>227</v>
       </c>
-      <c r="B189" s="22" t="s">
+      <c r="B189" s="21" t="s">
         <v>221</v>
       </c>
       <c r="C189" s="9" t="s">
@@ -5203,7 +5122,7 @@
       <c r="A190" t="s">
         <v>227</v>
       </c>
-      <c r="B190" s="22" t="s">
+      <c r="B190" s="21" t="s">
         <v>222</v>
       </c>
       <c r="C190" s="9" t="s">
@@ -5221,7 +5140,7 @@
       <c r="A191" t="s">
         <v>227</v>
       </c>
-      <c r="B191" s="22" t="s">
+      <c r="B191" s="21" t="s">
         <v>223</v>
       </c>
       <c r="C191" s="9" t="s">
@@ -5239,7 +5158,7 @@
       <c r="A192" t="s">
         <v>227</v>
       </c>
-      <c r="B192" s="22" t="s">
+      <c r="B192" s="21" t="s">
         <v>224</v>
       </c>
       <c r="C192" s="9" t="s">
@@ -5257,7 +5176,7 @@
       <c r="A193" t="s">
         <v>227</v>
       </c>
-      <c r="B193" s="22" t="s">
+      <c r="B193" s="21" t="s">
         <v>225</v>
       </c>
       <c r="C193" s="9" t="s">
@@ -5275,16 +5194,16 @@
       <c r="A194" t="s">
         <v>227</v>
       </c>
-      <c r="B194" s="22" t="s">
+      <c r="B194" s="21" t="s">
         <v>226</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D194" s="23">
+      <c r="D194" s="22">
         <v>43690</v>
       </c>
-      <c r="E194" s="23">
+      <c r="E194" s="22">
         <v>43690</v>
       </c>
       <c r="F194" s="9"/>
@@ -5293,7 +5212,7 @@
       <c r="A195" t="s">
         <v>227</v>
       </c>
-      <c r="B195" s="22" t="s">
+      <c r="B195" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C195" s="9" t="s">
@@ -5305,7 +5224,7 @@
       <c r="A196" t="s">
         <v>229</v>
       </c>
-      <c r="B196" s="22" t="s">
+      <c r="B196" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C196" s="9" t="s">
@@ -5323,7 +5242,7 @@
       <c r="A197" t="s">
         <v>229</v>
       </c>
-      <c r="B197" s="22" t="s">
+      <c r="B197" s="21" t="s">
         <v>228</v>
       </c>
       <c r="C197" s="9" t="s">
@@ -5341,10 +5260,10 @@
       <c r="C198" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D198" s="25" t="s">
+      <c r="D198" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="E198" s="25" t="s">
+      <c r="E198" s="24" t="s">
         <v>325</v>
       </c>
       <c r="F198" s="9"/>
@@ -5353,16 +5272,16 @@
       <c r="A199" t="s">
         <v>234</v>
       </c>
-      <c r="B199" s="22" t="s">
+      <c r="B199" s="21" t="s">
         <v>235</v>
       </c>
       <c r="C199" t="s">
         <v>119</v>
       </c>
-      <c r="D199" s="28" t="s">
+      <c r="D199" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="E199" s="27" t="s">
+      <c r="E199" s="26" t="s">
         <v>336</v>
       </c>
       <c r="F199" s="9"/>
@@ -5371,7 +5290,7 @@
       <c r="A200" t="s">
         <v>234</v>
       </c>
-      <c r="B200" s="22" t="s">
+      <c r="B200" s="21" t="s">
         <v>236</v>
       </c>
       <c r="C200" t="s">
@@ -5380,12 +5299,12 @@
       <c r="F200" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H103" xr:uid="{08FCDD39-550A-416F-A1E8-17A8732FCA8E}"/>
+  <autoFilter ref="A2:G103" xr:uid="{08FCDD39-550A-416F-A1E8-17A8732FCA8E}"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G36" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G98:H98 G35 G113:H113" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G98 G35 G113" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G87 G32" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
@@ -5411,6 +5330,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740F98E4-4E45-4FFC-9391-45E7D275E888}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.44140625" style="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{A1BBD2C2-525F-4852-980E-12513D31FCBE}">
+      <formula1>Step</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I52"/>

--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssahoo43\D_Drive\eAppBHFAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9865D419-B2A8-4FE4-A507-50DCE68E5D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6086FBB7-15AB-4833-9201-01D1A5ADF4A6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12756" windowHeight="2868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="2868" windowWidth="12756" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
-    <sheet name="FRA" sheetId="4" r:id="rId2"/>
-    <sheet name="FA" sheetId="5" r:id="rId3"/>
-    <sheet name="ListValues" sheetId="3" r:id="rId4"/>
+    <sheet name="TestCase" r:id="rId1" sheetId="1"/>
+    <sheet name="FRA" r:id="rId2" sheetId="4"/>
+    <sheet name="FA" r:id="rId3" sheetId="5"/>
+    <sheet name="ListValues" r:id="rId4" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FRA!$A$2:$G$103</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">FRA!$A$2:$G$103</definedName>
     <definedName name="P_Country">ListValues!$D$2:$D$24</definedName>
     <definedName name="P_Frequency">ListValues!$G$2:$G$5</definedName>
     <definedName name="P_Gender">ListValues!$E$2:$E$3</definedName>
@@ -33,7 +33,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1059,9 +1059,6 @@
     <t>S920000062</t>
   </si>
   <si>
-    <t>S920000063</t>
-  </si>
-  <si>
     <t>Save Confirmation Message</t>
   </si>
   <si>
@@ -1090,12 +1087,16 @@
   </si>
   <si>
     <t>FA</t>
+  </si>
+  <si>
+    <t>S920000065</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1207,97 +1208,98 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="31">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="5">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal_OLI_LU_NATION" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal_OLI_LUEXT_SUFFIX" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal_Sheet2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal_Sheet4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1314,10 +1316,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1352,7 +1354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1404,7 +1406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1515,21 +1517,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1546,7 +1548,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1598,27 +1600,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1629,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1643,10 +1645,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -1671,10 +1673,10 @@
         <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1685,10 +1687,10 @@
         <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,42 +1701,42 @@
         <v>242</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D6" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
+      <selection activeCell="C17" pane="bottomLeft" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.44140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="21" width="43.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="35.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="35.33203125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1861,7 +1863,7 @@
       </c>
       <c r="F6" s="9" t="str">
         <f>D199 &amp; ", Acknowledged"</f>
-        <v>S920000063, Acknowledged</v>
+        <v>, Acknowledged</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>120</v>
@@ -1932,10 +1934,10 @@
         <v>123</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>134</v>
@@ -1945,7 +1947,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2326,7 +2328,7 @@
         <v>126</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>120</v>
@@ -3202,7 +3204,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="23"/>
     </row>
-    <row r="79" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="79" s="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>172</v>
       </c>
@@ -3220,7 +3222,7 @@
       </c>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="80" s="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>172</v>
       </c>
@@ -3238,7 +3240,7 @@
       </c>
       <c r="F80" s="9"/>
     </row>
-    <row r="81" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="81" s="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>172</v>
       </c>
@@ -3254,7 +3256,7 @@
       </c>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:7" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="82" s="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>172</v>
       </c>
@@ -3272,7 +3274,7 @@
       </c>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="1:7" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="83" s="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>172</v>
       </c>
@@ -3290,7 +3292,7 @@
       </c>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="84" s="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>248</v>
       </c>
@@ -3306,7 +3308,7 @@
       </c>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="85" s="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>172</v>
       </c>
@@ -3324,7 +3326,7 @@
       </c>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="1:7" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="86" s="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>172</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>234</v>
       </c>
       <c r="B123" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>132</v>
@@ -4010,7 +4012,7 @@
         <v>234</v>
       </c>
       <c r="B124" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C124" t="s">
         <v>121</v>
@@ -4056,7 +4058,7 @@
       </c>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>186</v>
       </c>
@@ -4090,7 +4092,7 @@
       </c>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>186</v>
       </c>
@@ -4504,7 +4506,7 @@
       <c r="E152" s="21"/>
       <c r="F152" s="9"/>
     </row>
-    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>215</v>
       </c>
@@ -4522,7 +4524,7 @@
       </c>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>215</v>
       </c>
@@ -4992,7 +4994,7 @@
       </c>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>227</v>
       </c>
@@ -5046,7 +5048,7 @@
       </c>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>227</v>
       </c>
@@ -5064,7 +5066,7 @@
       </c>
       <c r="F186" s="9"/>
     </row>
-    <row r="187" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>227</v>
       </c>
@@ -5082,7 +5084,7 @@
       </c>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>227</v>
       </c>
@@ -5250,7 +5252,7 @@
       </c>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>234</v>
       </c>
@@ -5278,8 +5280,8 @@
       <c r="C199" t="s">
         <v>119</v>
       </c>
-      <c r="D199" s="27" t="s">
-        <v>337</v>
+      <c r="D199" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="E199" s="26" t="s">
         <v>336</v>
@@ -5301,48 +5303,48 @@
   </sheetData>
   <autoFilter ref="A2:G103" xr:uid="{08FCDD39-550A-416F-A1E8-17A8732FCA8E}"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G36" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G36" type="list" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G98 G35 G113" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G98 G35 G113" type="list" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G87 G32" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G87 G32" type="list" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 G37 G39:G43 G33 G24:G25" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D24:D25 G37 G39:G43 G33 G24:G25" type="list" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23 D21" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G23 D21" type="list" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D48" r:id="rId1" xr:uid="{BBB72132-E006-4FE8-AFC9-B3A2293BDA48}"/>
-    <hyperlink ref="D70" r:id="rId2" xr:uid="{6EC5750C-F015-4F21-8756-BB0C6882AD48}"/>
+    <hyperlink r:id="rId1" ref="D48" xr:uid="{BBB72132-E006-4FE8-AFC9-B3A2293BDA48}"/>
+    <hyperlink r:id="rId2" ref="D70" xr:uid="{6EC5750C-F015-4F21-8756-BB0C6882AD48}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740F98E4-4E45-4FFC-9391-45E7D275E888}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740F98E4-4E45-4FFC-9391-45E7D275E888}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.44140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="21" width="43.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5386,13 +5388,13 @@
         <v>123</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5423,18 +5425,18 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{A1BBD2C2-525F-4852-980E-12513D31FCBE}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{A1BBD2C2-525F-4852-980E-12513D31FCBE}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -5442,11 +5444,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="32.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -5688,7 +5690,7 @@
         <v>97</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -5933,6 +5935,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssahoo43\D_Drive\eAppBHFAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{52DB805B-75E1-4C19-BC9D-F6F88469A6DC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C75B5-C684-4897-BB8E-782898E85EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="2868" windowWidth="12756" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12756" windowHeight="2868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" r:id="rId1" sheetId="1"/>
-    <sheet name="FRA" r:id="rId2" sheetId="4"/>
-    <sheet name="IA" r:id="rId3" sheetId="8"/>
-    <sheet name="GIB" r:id="rId4" sheetId="6"/>
-    <sheet name="VA" r:id="rId5" sheetId="7"/>
-    <sheet name="All" r:id="rId6" sheetId="9"/>
-    <sheet name="Sample" r:id="rId7" sheetId="5"/>
-    <sheet name="ListValues" r:id="rId8" sheetId="3"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="FRA" sheetId="4" r:id="rId2"/>
+    <sheet name="IA" sheetId="8" r:id="rId3"/>
+    <sheet name="GIB" sheetId="6" r:id="rId4"/>
+    <sheet name="VA" sheetId="7" r:id="rId5"/>
+    <sheet name="All" sheetId="9" r:id="rId6"/>
+    <sheet name="Sample" sheetId="5" r:id="rId7"/>
+    <sheet name="ListValues" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">FRA!$A$2:$E$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FRA!$A$2:$E$102</definedName>
     <definedName name="P_Country">ListValues!$D$2:$D$24</definedName>
     <definedName name="P_Frequency">ListValues!$G$2:$G$5</definedName>
     <definedName name="P_Gender">ListValues!$E$2:$E$3</definedName>
@@ -37,7 +37,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="533">
   <si>
     <t>SLNo</t>
   </si>
@@ -1609,18 +1609,9 @@
     <t>All</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>IA01</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
-    <t>D920000079</t>
-  </si>
-  <si>
     <t>Tax market applied for</t>
   </si>
   <si>
@@ -1636,17 +1627,34 @@
     <t>Test II, Automation Shiled</t>
   </si>
   <si>
-    <t>D320000215</t>
-  </si>
-  <si>
     <t>D22400692</t>
+  </si>
+  <si>
+    <t>TC#6X</t>
+  </si>
+  <si>
+    <t>GIB Test II, Automation</t>
+  </si>
+  <si>
+    <t>Date Trust Created</t>
+  </si>
+  <si>
+    <t>DL61000127</t>
+  </si>
+  <si>
+    <t>D920000080</t>
+  </si>
+  <si>
+    <t>D22400693</t>
+  </si>
+  <si>
+    <t>D320000216</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1763,92 +1771,96 @@
     </border>
   </borders>
   <cellStyleXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="5">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" quotePrefix="1" xfId="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="5"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 2" xfId="6" xr:uid="{D48DE2E3-3F96-4A9E-9C69-52CBB1C1DEA5}"/>
     <cellStyle name="Normal_OLI_LU_NATION" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal_OLI_LUEXT_SUFFIX" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1856,7 +1868,7 @@
     <cellStyle name="Normal_Sheet4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1873,10 +1885,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1911,7 +1923,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1963,7 +1975,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2074,21 +2086,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2105,7 +2117,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2157,27 +2169,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2205,7 +2217,7 @@
         <v>338</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2258,7 +2270,7 @@
         <v>241</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -2303,7 +2315,7 @@
         <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2336,32 +2348,32 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D11" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
-      <selection activeCell="D20" pane="bottomLeft" sqref="D20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="43.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="35.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.44140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3464,7 +3476,7 @@
       </c>
       <c r="E76" s="9"/>
     </row>
-    <row customFormat="1" r="77" s="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>172</v>
       </c>
@@ -3479,7 +3491,7 @@
       </c>
       <c r="E77" s="9"/>
     </row>
-    <row customFormat="1" r="78" s="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>172</v>
       </c>
@@ -3494,7 +3506,7 @@
       </c>
       <c r="E78" s="9"/>
     </row>
-    <row customFormat="1" r="79" s="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>172</v>
       </c>
@@ -3507,7 +3519,7 @@
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
     </row>
-    <row customFormat="1" ht="28.8" r="80" s="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>172</v>
       </c>
@@ -3522,7 +3534,7 @@
       </c>
       <c r="E80" s="9"/>
     </row>
-    <row customFormat="1" ht="28.8" r="81" s="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>172</v>
       </c>
@@ -3537,7 +3549,7 @@
       </c>
       <c r="E81" s="9"/>
     </row>
-    <row customFormat="1" r="82" s="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>247</v>
       </c>
@@ -3550,7 +3562,7 @@
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
     </row>
-    <row customFormat="1" r="83" s="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>172</v>
       </c>
@@ -3565,7 +3577,7 @@
       </c>
       <c r="E83" s="9"/>
     </row>
-    <row customFormat="1" ht="28.8" r="84" s="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>172</v>
       </c>
@@ -4199,7 +4211,7 @@
       </c>
       <c r="E126" s="9"/>
     </row>
-    <row ht="28.8" r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>186</v>
       </c>
@@ -4227,7 +4239,7 @@
       <c r="D128" s="21"/>
       <c r="E128" s="9"/>
     </row>
-    <row ht="28.8" r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>186</v>
       </c>
@@ -4571,7 +4583,7 @@
       <c r="D152" s="18"/>
       <c r="E152" s="9"/>
     </row>
-    <row ht="28.8" r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>215</v>
       </c>
@@ -4586,7 +4598,7 @@
       </c>
       <c r="E153" s="9"/>
     </row>
-    <row ht="28.8" r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>215</v>
       </c>
@@ -4989,7 +5001,7 @@
       </c>
       <c r="E181" s="9"/>
     </row>
-    <row ht="28.8" r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>227</v>
       </c>
@@ -5040,7 +5052,7 @@
       </c>
       <c r="E185" s="9"/>
     </row>
-    <row ht="28.8" r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>227</v>
       </c>
@@ -5055,7 +5067,7 @@
       </c>
       <c r="E186" s="9"/>
     </row>
-    <row ht="28.8" r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>227</v>
       </c>
@@ -5070,7 +5082,7 @@
       </c>
       <c r="E187" s="9"/>
     </row>
-    <row ht="28.8" r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>227</v>
       </c>
@@ -5214,7 +5226,7 @@
       </c>
       <c r="E197" s="9"/>
     </row>
-    <row ht="28.8" r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>234</v>
       </c>
@@ -5239,8 +5251,8 @@
       <c r="C199" t="s">
         <v>119</v>
       </c>
-      <c r="D199" s="27" t="s">
-        <v>522</v>
+      <c r="D199" s="29" t="s">
+        <v>530</v>
       </c>
       <c r="E199" s="9"/>
     </row>
@@ -5259,40 +5271,40 @@
   </sheetData>
   <autoFilter ref="A2:E102" xr:uid="{08FCDD39-550A-416F-A1E8-17A8732FCA8E}"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D22:D23" type="list" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D23" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D19" type="list" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D46" xr:uid="{BBB72132-E006-4FE8-AFC9-B3A2293BDA48}"/>
-    <hyperlink r:id="rId2" ref="D68" xr:uid="{6EC5750C-F015-4F21-8756-BB0C6882AD48}"/>
+    <hyperlink ref="D46" r:id="rId1" xr:uid="{BBB72132-E006-4FE8-AFC9-B3A2293BDA48}"/>
+    <hyperlink ref="D68" r:id="rId2" xr:uid="{6EC5750C-F015-4F21-8756-BB0C6882AD48}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78135DB0-48C1-48EF-B1D4-B97674F1FA04}">
-  <dimension ref="A1:H179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78135DB0-48C1-48EF-B1D4-B97674F1FA04}">
+  <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="43.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="9" width="41.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.44140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="41.88671875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5322,10 +5334,10 @@
         <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>524</v>
+        <v>128</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>128</v>
+        <v>521</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>131</v>
@@ -5336,7 +5348,7 @@
         <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>121</v>
@@ -5348,10 +5360,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>243</v>
@@ -5360,7 +5372,7 @@
         <v>120</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F4" s="9"/>
     </row>
@@ -5418,7 +5430,7 @@
       </c>
       <c r="F7" s="9" t="str">
         <f>D178 &amp; ", Acknowledged"</f>
-        <v>IA01, Acknowledged</v>
+        <v>D22400692, Acknowledged</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6924,7 +6936,7 @@
       </c>
       <c r="F94" s="9"/>
     </row>
-    <row customFormat="1" r="95" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>172</v>
       </c>
@@ -6942,7 +6954,7 @@
       </c>
       <c r="F95" s="9"/>
     </row>
-    <row customFormat="1" r="96" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>172</v>
       </c>
@@ -6960,7 +6972,7 @@
       </c>
       <c r="F96" s="9"/>
     </row>
-    <row customFormat="1" r="97" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>172</v>
       </c>
@@ -6976,7 +6988,7 @@
       </c>
       <c r="F97" s="9"/>
     </row>
-    <row customFormat="1" ht="28.8" r="98" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
         <v>172</v>
       </c>
@@ -6994,7 +7006,7 @@
       </c>
       <c r="F98" s="9"/>
     </row>
-    <row customFormat="1" r="99" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>247</v>
       </c>
@@ -7010,7 +7022,7 @@
       </c>
       <c r="F99" s="9"/>
     </row>
-    <row customFormat="1" r="100" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>172</v>
       </c>
@@ -7573,7 +7585,7 @@
       </c>
       <c r="F132" s="9"/>
     </row>
-    <row ht="28.8" r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -8037,7 +8049,7 @@
       </c>
       <c r="F160" s="9"/>
     </row>
-    <row ht="28.8" r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>227</v>
       </c>
@@ -8091,7 +8103,7 @@
       </c>
       <c r="F164" s="9"/>
     </row>
-    <row ht="28.8" r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>227</v>
       </c>
@@ -8109,7 +8121,7 @@
       </c>
       <c r="F165" s="9"/>
     </row>
-    <row ht="28.8" r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>227</v>
       </c>
@@ -8127,7 +8139,7 @@
       </c>
       <c r="F166" s="9"/>
     </row>
-    <row ht="28.8" r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>227</v>
       </c>
@@ -8323,12 +8335,11 @@
       <c r="C178" t="s">
         <v>119</v>
       </c>
-      <c r="D178" s="27" t="str">
-        <f>E178</f>
-        <v>IA01</v>
-      </c>
-      <c r="E178" s="28" t="s">
-        <v>529</v>
+      <c r="D178" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="E178" s="27" t="s">
+        <v>525</v>
       </c>
       <c r="F178" s="9"/>
     </row>
@@ -8346,39 +8357,38 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D23" type="list" xr:uid="{E07F349F-2ED8-43D8-8A1E-1CEA605B876E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23" xr:uid="{E07F349F-2ED8-43D8-8A1E-1CEA605B876E}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D40:D41 D93" type="list" xr:uid="{4F1CF3B0-E64B-447E-819B-74A128F5F72D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D41 D93" xr:uid="{4F1CF3B0-E64B-447E-819B-74A128F5F72D}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{21A1F8CD-B515-4F80-9A1F-51C7AAC4E9DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{21A1F8CD-B515-4F80-9A1F-51C7AAC4E9DE}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D64" xr:uid="{4B3148D1-EE74-415A-B5ED-47172828CA57}"/>
+    <hyperlink ref="D64" r:id="rId1" xr:uid="{4B3148D1-EE74-415A-B5ED-47172828CA57}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAA36A6-658C-4CE3-AF09-C9B3587ADA6A}">
-  <dimension ref="A1:G206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAA36A6-658C-4CE3-AF09-C9B3587ADA6A}">
+  <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="43.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="41.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="65.6640625" collapsed="false"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.44140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="41.88671875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8391,9 +8401,11 @@
         <v>6</v>
       </c>
       <c r="E1" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3">
         <v>7</v>
       </c>
-      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -8409,48 +8421,48 @@
         <v>339</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>123</v>
+      <c r="B3" t="s">
+        <v>522</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>335</v>
+        <v>522</v>
+      </c>
+      <c r="B4" t="s">
+        <v>523</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>378</v>
+        <v>120</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>378</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>123</v>
@@ -8458,62 +8470,67 @@
       <c r="C5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>335</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>132</v>
+        <v>334</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f>D205 &amp; ", Acknowledged"</f>
-        <v>ABC, Acknowledged</v>
+        <v>378</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>130</v>
+        <v>123</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>120</v>
+        <v>129</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f>D208 &amp; ", Acknowledged"</f>
+        <v>XYZ, Acknowledged</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8521,69 +8538,68 @@
         <v>129</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="F9" s="9" t="s">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>195</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="13">
-        <v>43698</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
@@ -8593,1512 +8609,1503 @@
         <v>136</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="10">
-        <v>435243</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D14" s="13">
+        <v>43698</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="D16" s="10">
+        <v>435243</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B17" t="s">
-        <v>523</v>
+      <c r="B17" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B18" t="s">
-        <v>417</v>
+      <c r="B18" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>418</v>
+        <v>520</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="19">
-        <v>43697</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D19" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>141</v>
+      <c r="B20" t="s">
+        <v>417</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>246</v>
+      <c r="B21" t="s">
+        <v>418</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D21" s="19">
+        <v>43697</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" t="s">
-        <v>424</v>
+        <v>129</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B25" t="s">
-        <v>424</v>
+      <c r="B25" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>130</v>
+      <c r="B26" t="s">
+        <v>424</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>146</v>
+      <c r="B27" t="s">
+        <v>424</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="28.8" r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B28" t="s">
-        <v>425</v>
+      <c r="B28" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>148</v>
+      <c r="B30" t="s">
+        <v>425</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B31" t="s">
-        <v>427</v>
-      </c>
       <c r="C31" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>147</v>
+      <c r="B33" t="s">
+        <v>427</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D38" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D39" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E40" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E41" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D45" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D46" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D47" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D48" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D50" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>429</v>
+        <v>160</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D51" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>430</v>
+        <v>161</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D52" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E53" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E55" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D56" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E57" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E58" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D59" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E60" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E61" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D63" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D65" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D66" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D67" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D68" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D69" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D70" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D71" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B72" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row customFormat="1" r="73" s="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row customFormat="1" r="75" s="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D74" s="16"/>
+      <c r="E74" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row customFormat="1" r="76" s="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row customFormat="1" r="77" s="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row customFormat="1" r="78" s="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E77" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B78" t="s">
-        <v>176</v>
+      <c r="B78" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B79" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="18" t="s">
-        <v>255</v>
-      </c>
       <c r="C79" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" t="s">
         <v>176</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D81" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D81" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F81" s="9"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D82" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D82" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="F82" s="9"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>149</v>
+      <c r="B83" t="s">
+        <v>528</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D83" s="19">
+        <v>42060</v>
+      </c>
+      <c r="E83" s="19">
+        <v>42060</v>
+      </c>
+      <c r="F83" s="9"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D84" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D84" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D85" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F85" s="9"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="9"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D87" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F88" s="9"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D89" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D90" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D90" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F90" s="9"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="9">
-        <v>100</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D91" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D93" s="9">
-        <v>100</v>
-      </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93" s="9"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B94" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="9">
+        <v>100</v>
+      </c>
+      <c r="E94" s="9">
+        <v>100</v>
+      </c>
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="9">
+        <v>100</v>
+      </c>
+      <c r="E96" s="9">
+        <v>100</v>
+      </c>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C97" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D95" t="s">
-        <v>186</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>186</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>186</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="B98" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>186</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -10108,120 +10115,113 @@
         <v>196</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B101" s="18" t="s">
-        <v>185</v>
-      </c>
       <c r="C101" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="9"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>186</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F103" s="9"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E104" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="9"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F105" s="9"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>187</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F106" s="9"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -10231,51 +10231,51 @@
         <v>188</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="9"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>187</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>247</v>
-      </c>
-      <c r="B109" t="s">
         <v>187</v>
       </c>
+      <c r="B109" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="C109" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="9"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -10285,15 +10285,15 @@
         <v>188</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E110" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F110" s="9"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
@@ -10303,58 +10303,58 @@
         <v>188</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E111" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" t="s">
         <v>187</v>
       </c>
-      <c r="B112" s="18" t="s">
-        <v>189</v>
-      </c>
       <c r="C112" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E112" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>187</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E113" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>187</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>118</v>
@@ -10362,17 +10362,17 @@
       <c r="D114" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E114" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>187</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>118</v>
@@ -10380,65 +10380,68 @@
       <c r="D115" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E115" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>187</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F116" s="9"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D117" t="s">
-        <v>341</v>
-      </c>
-      <c r="E117" s="9"/>
-      <c r="F117" t="s">
-        <v>341</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" s="9"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>341</v>
-      </c>
-      <c r="B118" t="s">
-        <v>379</v>
+        <v>187</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9" t="s">
-        <v>342</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F118" s="9"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>130</v>
@@ -10446,7 +10449,6 @@
       <c r="C119" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -10454,139 +10456,132 @@
         <v>341</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>343</v>
+        <v>135</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9" t="s">
-        <v>344</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D120" t="s">
+        <v>341</v>
+      </c>
+      <c r="E120" t="s">
+        <v>341</v>
+      </c>
+      <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>341</v>
       </c>
       <c r="B121" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D121" s="25">
-        <v>43678</v>
-      </c>
-      <c r="E121" s="9"/>
-      <c r="F121" s="25">
-        <v>43678</v>
-      </c>
-    </row>
-    <row ht="28.8" r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D121" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>341</v>
       </c>
-      <c r="B122" t="s">
-        <v>380</v>
+      <c r="B122" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="21" t="s">
-        <v>345</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>341</v>
       </c>
-      <c r="B123" t="s">
-        <v>346</v>
+      <c r="B123" s="18" t="s">
+        <v>343</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9" t="s">
-        <v>347</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="B124" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E124" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="D124" s="25">
+        <v>43678</v>
+      </c>
+      <c r="E124" s="25">
+        <v>43678</v>
+      </c>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>341</v>
       </c>
-      <c r="B125" s="18" t="s">
-        <v>343</v>
+      <c r="B125" t="s">
+        <v>380</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row ht="28.8" r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>341</v>
       </c>
       <c r="B126" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="21" t="s">
-        <v>345</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F126" s="9"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" t="s">
         <v>341</v>
       </c>
-      <c r="B127" t="s">
-        <v>346</v>
-      </c>
       <c r="C127" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9" t="s">
-        <v>347</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F127" s="9"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
@@ -10596,17 +10591,17 @@
         <v>343</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>341</v>
       </c>
@@ -10614,15 +10609,15 @@
         <v>380</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D129" s="19">
-        <v>47716</v>
-      </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="19">
-        <v>47716</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="F129" s="9"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
@@ -10632,310 +10627,310 @@
         <v>346</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9" t="s">
-        <v>348</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F130" s="9"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>341</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9" t="s">
-        <v>349</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>341</v>
       </c>
       <c r="B132" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D132" s="9">
-        <v>10</v>
-      </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9">
-        <v>10</v>
-      </c>
+      <c r="D132" s="19">
+        <v>47716</v>
+      </c>
+      <c r="E132" s="19">
+        <v>47716</v>
+      </c>
+      <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>341</v>
       </c>
       <c r="B133" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D133" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="E133" s="9"/>
-      <c r="F133" s="26" t="s">
-        <v>356</v>
-      </c>
+      <c r="D133" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F133" s="9"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>341</v>
       </c>
-      <c r="B134" t="s">
-        <v>353</v>
+      <c r="B134" s="18" t="s">
+        <v>350</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9" t="s">
-        <v>357</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>341</v>
       </c>
       <c r="B135" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D135" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="D135" s="9">
+        <v>10</v>
+      </c>
+      <c r="E135" s="9">
+        <v>10</v>
+      </c>
+      <c r="F135" s="9"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>341</v>
       </c>
       <c r="B136" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D136" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E136" s="9"/>
-      <c r="F136" s="10" t="s">
-        <v>358</v>
-      </c>
+      <c r="D136" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="F136" s="9"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>341</v>
       </c>
       <c r="B137" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9" t="s">
-        <v>5</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F137" s="9"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>341</v>
       </c>
       <c r="B138" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="9"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>341</v>
       </c>
       <c r="B139" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9" t="s">
-        <v>374</v>
-      </c>
+      <c r="D139" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F139" s="9"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>341</v>
       </c>
-      <c r="B140" s="18" t="s">
-        <v>373</v>
+      <c r="B140" t="s">
+        <v>359</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9" t="s">
-        <v>375</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" s="9"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>341</v>
       </c>
-      <c r="B141" s="18" t="s">
-        <v>362</v>
+      <c r="B141" t="s">
+        <v>360</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D141" s="9">
-        <v>3</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9">
-        <v>3</v>
-      </c>
+      <c r="D141" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="9"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>341</v>
       </c>
       <c r="B142" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9" t="s">
-        <v>376</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F142" s="9"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>341</v>
       </c>
-      <c r="B143" t="s">
-        <v>364</v>
+      <c r="B143" s="18" t="s">
+        <v>373</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D143" s="9">
-        <v>2500</v>
-      </c>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9">
-        <v>2500</v>
-      </c>
+      <c r="D143" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F143" s="9"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>341</v>
       </c>
-      <c r="B144" t="s">
-        <v>365</v>
+      <c r="B144" s="18" t="s">
+        <v>362</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D144" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D144" s="9">
+        <v>3</v>
+      </c>
+      <c r="E144" s="9">
+        <v>3</v>
+      </c>
+      <c r="F144" s="9"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>341</v>
       </c>
       <c r="B145" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9" t="s">
-        <v>120</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F145" s="9"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>341</v>
       </c>
       <c r="B146" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D146" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D146" s="9">
+        <v>2500</v>
+      </c>
+      <c r="E146" s="9">
+        <v>2500</v>
+      </c>
+      <c r="F146" s="9"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>341</v>
       </c>
       <c r="B147" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>118</v>
@@ -10943,53 +10938,53 @@
       <c r="D147" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E147" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F147" s="9"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>341</v>
       </c>
       <c r="B148" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F148" s="9"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>341</v>
       </c>
       <c r="B149" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9" t="s">
-        <v>209</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F149" s="9"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>341</v>
       </c>
       <c r="B150" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>118</v>
@@ -10997,543 +10992,626 @@
       <c r="D150" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="E150" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F150" s="9"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>341</v>
       </c>
       <c r="B151" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D151" s="9">
-        <v>15</v>
-      </c>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9">
-        <v>15</v>
-      </c>
+      <c r="D151" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" s="9"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>341</v>
       </c>
-      <c r="B152" s="18" t="s">
-        <v>130</v>
+      <c r="B152" t="s">
+        <v>370</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E152" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="F152" s="9"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>200</v>
-      </c>
-      <c r="B153" s="18" t="s">
-        <v>135</v>
+        <v>341</v>
+      </c>
+      <c r="B153" t="s">
+        <v>371</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D153" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E153" s="9"/>
-      <c r="F153" s="18" t="s">
-        <v>232</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F153" s="9"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>200</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>199</v>
+        <v>341</v>
+      </c>
+      <c r="B154" t="s">
+        <v>372</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D154" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9" t="s">
-        <v>240</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D154" s="9">
+        <v>15</v>
+      </c>
+      <c r="E154" s="9">
+        <v>15</v>
+      </c>
+      <c r="F154" s="9"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>200</v>
+        <v>341</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D155" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="F155" s="9"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>200</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D156" s="18"/>
-      <c r="E156" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F156" s="9"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E157" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="9"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D158" s="18"/>
-      <c r="E158" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158" s="9"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D159" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="E159" s="9"/>
-    </row>
-    <row ht="28.8" r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="9"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>215</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E160" s="9"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F160" s="9"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D161" s="18"/>
-      <c r="E161" s="9"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E161" s="18"/>
+      <c r="F161" s="9"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>215</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="E162" s="9"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F162" s="9"/>
+    </row>
+    <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>215</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E163" s="9"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="F163" s="9"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>247</v>
+      </c>
+      <c r="B164" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B164" s="18" t="s">
-        <v>202</v>
-      </c>
       <c r="C164" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D164" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E164" s="9"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="9"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>215</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E165" s="9"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F165" s="9"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>215</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D166" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E166" s="9"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D166" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F166" s="9"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>215</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D167" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="E167" s="9"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D167" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="9"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>215</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E168" s="9"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F168" s="9"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>215</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E169" s="9"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F169" s="9"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>215</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E170" s="9"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D170" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F170" s="9"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>215</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D171" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E171" s="9"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D171" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F171" s="9"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>215</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D172" s="22">
-        <v>435243</v>
-      </c>
-      <c r="E172" s="9"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F172" s="9"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>215</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>206</v>
+        <v>7</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E173" s="9"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" s="9"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>215</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="E174" s="9"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F174" s="9"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>215</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E175" s="9"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="D175" s="22">
+        <v>435243</v>
+      </c>
+      <c r="E175" s="22">
+        <v>435243</v>
+      </c>
+      <c r="F175" s="9"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>215</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D176" s="16">
-        <v>100</v>
-      </c>
-      <c r="E176" s="9"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D176" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F176" s="9"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>215</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D177" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E177" s="9"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D177" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F177" s="9"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>215</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="9"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F178" s="9"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>215</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D179" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E179" s="9"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D179" s="16">
+        <v>100</v>
+      </c>
+      <c r="E179" s="16">
+        <v>100</v>
+      </c>
+      <c r="F179" s="9"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>215</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E180" s="9"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F180" s="9"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>215</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D181" s="23">
-        <v>12500</v>
-      </c>
-      <c r="E181" s="9"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F181" s="9"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>215</v>
       </c>
       <c r="B182" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F182" s="9"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>215</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F183" s="9"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>215</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D184" s="23">
+        <v>12500</v>
+      </c>
+      <c r="E184" s="23">
+        <v>12500</v>
+      </c>
+      <c r="F184" s="9"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>215</v>
+      </c>
+      <c r="B185" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C185" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E182" s="9"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="F185" s="9"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>230</v>
       </c>
-      <c r="B183" s="18" t="s">
+      <c r="B186" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C186" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E183" s="9"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="F186" s="9"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>230</v>
-      </c>
-      <c r="B184" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E184" s="9"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>227</v>
-      </c>
-      <c r="B185" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E185" s="9"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>227</v>
-      </c>
-      <c r="B186" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E186" s="9"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>227</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>130</v>
@@ -11541,140 +11619,152 @@
       <c r="C187" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E187" s="9"/>
-    </row>
-    <row ht="28.8" r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" s="9"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>227</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D188" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="E188" s="9"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F188" s="9"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>227</v>
       </c>
-      <c r="B189" t="s">
-        <v>318</v>
+      <c r="B189" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E189" s="9"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F189" s="9"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>247</v>
-      </c>
-      <c r="B190" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E190" s="9"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" s="9"/>
+    </row>
+    <row r="191" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E191" s="9"/>
-    </row>
-    <row ht="28.8" r="192" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="D191" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E191" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F191" s="9"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>227</v>
       </c>
-      <c r="B192" s="18" t="s">
-        <v>220</v>
+      <c r="B192" t="s">
+        <v>318</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="E192" s="9"/>
-    </row>
-    <row ht="28.8" r="193" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F192" s="9"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>227</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>219</v>
+        <v>247</v>
+      </c>
+      <c r="B193" t="s">
+        <v>230</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E193" s="9"/>
-    </row>
-    <row ht="28.8" r="194" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F193" s="9"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E194" s="9"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F194" s="9"/>
+    </row>
+    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>227</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D195" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E195" s="9"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="D195" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E195" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="F195" s="9"/>
+    </row>
+    <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>227</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E196" s="9"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F196" s="9"/>
+    </row>
+    <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>227</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>118</v>
@@ -11682,168 +11772,244 @@
       <c r="D197" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E197" s="9"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E197" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197" s="9"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>227</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E198" s="9"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F198" s="9"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>227</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E199" s="9"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F199" s="9"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>227</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D200" s="19">
-        <v>43698</v>
-      </c>
-      <c r="E200" s="9"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D200" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F200" s="9"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>227</v>
       </c>
       <c r="B201" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F201" s="9"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>227</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F202" s="9"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>227</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D203" s="19">
+        <v>43698</v>
+      </c>
+      <c r="E203" s="19">
+        <v>43698</v>
+      </c>
+      <c r="F203" s="9"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>227</v>
+      </c>
+      <c r="B204" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C204" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E201" s="9"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="F204" s="9"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>229</v>
       </c>
-      <c r="B202" s="18" t="s">
+      <c r="B205" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C202" s="9" t="s">
+      <c r="C205" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D205" t="s">
         <v>229</v>
       </c>
-      <c r="E202" s="9"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="E205" t="s">
         <v>229</v>
       </c>
-      <c r="B203" s="18" t="s">
+      <c r="F205" s="9"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>229</v>
+      </c>
+      <c r="B206" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C203" s="9" t="s">
+      <c r="C206" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E203" s="9"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+      <c r="F206" s="9"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>234</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B207" t="s">
         <v>323</v>
       </c>
-      <c r="C204" s="9" t="s">
+      <c r="C207" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D204" s="21" t="s">
+      <c r="D207" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="E204" s="9"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+      <c r="E207" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="F207" s="9"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>234</v>
       </c>
-      <c r="B205" s="18" t="s">
+      <c r="B208" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C208" t="s">
         <v>119</v>
       </c>
-      <c r="D205" s="24" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="D208" s="31" t="str">
+        <f>E208</f>
+        <v>DL61000128</v>
+      </c>
+      <c r="E208" s="28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>234</v>
       </c>
-      <c r="B206" s="18" t="s">
+      <c r="B209" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C209" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F16 D16" type="list" xr:uid="{9657D718-D4CB-4C21-B4EC-36850E786340}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18" xr:uid="{9657D718-D4CB-4C21-B4EC-36850E786340}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D20:D21" type="list" xr:uid="{F25BBB8A-E990-4F46-B301-FCEAF55BB358}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D23" xr:uid="{F25BBB8A-E990-4F46-B301-FCEAF55BB358}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{CD9F8332-1B48-4E64-B16D-2D0771B6F21C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{CD9F8332-1B48-4E64-B16D-2D0771B6F21C}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D48" xr:uid="{090D48D7-7F5F-424A-803B-A6EE837531D2}"/>
-    <hyperlink r:id="rId2" ref="D69" xr:uid="{FB019633-8E9E-4E88-8821-C279313A5C52}"/>
+    <hyperlink ref="D50" r:id="rId1" xr:uid="{090D48D7-7F5F-424A-803B-A6EE837531D2}"/>
+    <hyperlink ref="D71" r:id="rId2" xr:uid="{FB019633-8E9E-4E88-8821-C279313A5C52}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09FF1B8-A6E4-4273-AAE7-8B972A5FB15D}">
-  <dimension ref="A1:G231"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09FF1B8-A6E4-4273-AAE7-8B972A5FB15D}">
+  <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="43.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="41.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="65.6640625" collapsed="false"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.44140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41.88671875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="65.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11883,7 +12049,7 @@
         <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>121</v>
@@ -11895,10 +12061,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>243</v>
@@ -13185,7 +13351,7 @@
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="78" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>172</v>
       </c>
@@ -13203,7 +13369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="79" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>172</v>
       </c>
@@ -13221,7 +13387,7 @@
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="80" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>172</v>
       </c>
@@ -13237,7 +13403,7 @@
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="81" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>172</v>
       </c>
@@ -13255,7 +13421,7 @@
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="82" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>172</v>
       </c>
@@ -13273,7 +13439,7 @@
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="83" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>247</v>
       </c>
@@ -13289,7 +13455,7 @@
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="84" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>172</v>
       </c>
@@ -13307,7 +13473,7 @@
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="85" s="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>172</v>
       </c>
@@ -14628,7 +14794,7 @@
         <v>399</v>
       </c>
     </row>
-    <row ht="28.8" r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>393</v>
       </c>
@@ -15026,7 +15192,7 @@
       </c>
       <c r="E184" s="9"/>
     </row>
-    <row ht="28.8" r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>215</v>
       </c>
@@ -15422,7 +15588,7 @@
         <v>121</v>
       </c>
     </row>
-    <row ht="28.8" r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>227</v>
       </c>
@@ -15469,7 +15635,7 @@
         <v>121</v>
       </c>
     </row>
-    <row ht="28.8" r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>227</v>
       </c>
@@ -15483,7 +15649,7 @@
         <v>496</v>
       </c>
     </row>
-    <row ht="28.8" r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>227</v>
       </c>
@@ -15497,7 +15663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="28.8" r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>227</v>
       </c>
@@ -15655,8 +15821,8 @@
       <c r="C230" t="s">
         <v>119</v>
       </c>
-      <c r="D230" s="16" t="s">
-        <v>528</v>
+      <c r="D230" s="32" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -15672,38 +15838,38 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D21:D22" type="list" xr:uid="{A072586A-C5F6-42D7-9BF9-DB98D0D395B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:D22" xr:uid="{A072586A-C5F6-42D7-9BF9-DB98D0D395B6}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F18 D18" type="list" xr:uid="{41E474D4-7E0F-4E75-8060-E4333A9DA3EF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18 D18" xr:uid="{41E474D4-7E0F-4E75-8060-E4333A9DA3EF}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{AB48B712-5F87-4A95-9A9B-26A18F97CCCB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{AB48B712-5F87-4A95-9A9B-26A18F97CCCB}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D45" xr:uid="{424291D2-8EA2-4F7A-9DA8-DBFFF7E2C21B}"/>
-    <hyperlink r:id="rId2" ref="D74" xr:uid="{671648F9-1758-49A2-A228-8F205340B456}"/>
+    <hyperlink ref="D45" r:id="rId1" xr:uid="{424291D2-8EA2-4F7A-9DA8-DBFFF7E2C21B}"/>
+    <hyperlink ref="D74" r:id="rId2" xr:uid="{671648F9-1758-49A2-A228-8F205340B456}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB01B9C-2748-46DC-8A1A-84675AAFCB87}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB01B9C-2748-46DC-8A1A-84675AAFCB87}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="43.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.44140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -15754,7 +15920,7 @@
       </c>
       <c r="D4" s="9" t="str">
         <f>FRA!D199 &amp; ", Acknowledged"</f>
-        <v>FRA01, Acknowledged</v>
+        <v>D920000079, Acknowledged</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -15769,7 +15935,7 @@
       </c>
       <c r="D5" s="9" t="str">
         <f>IA!D178 &amp; ", Acknowledged"</f>
-        <v>IA01, Acknowledged</v>
+        <v>D22400692, Acknowledged</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -15783,8 +15949,8 @@
         <v>237</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f>GIB!D205 &amp; ", Acknowledged"</f>
-        <v>ABC, Acknowledged</v>
+        <f>GIB!D208 &amp; ", Acknowledged"</f>
+        <v>DL61000127, Acknowledged</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -15804,28 +15970,28 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{8EF9CB36-E07D-47D6-9039-FD62578A4665}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{8EF9CB36-E07D-47D6-9039-FD62578A4665}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740F98E4-4E45-4FFC-9391-45E7D275E888}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740F98E4-4E45-4FFC-9391-45E7D275E888}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="43.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.44140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -15906,18 +16072,18 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{A1BBD2C2-525F-4852-980E-12513D31FCBE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{A1BBD2C2-525F-4852-980E-12513D31FCBE}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
@@ -15925,11 +16091,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -16420,6 +16586,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssahoo43\D_Drive\eAppBHFAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05C75B5-C684-4897-BB8E-782898E85EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83740E-CFBC-4A1C-BA22-0A300E2CABBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12756" windowHeight="2868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12756" windowHeight="2868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -2180,7 +2180,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2363,7 +2363,7 @@
   <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -11998,8 +11998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09FF1B8-A6E4-4273-AAE7-8B972A5FB15D}">
   <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15702,7 +15702,7 @@
         <v>118</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>231</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssahoo43\D_Drive\eAppBHFAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83740E-CFBC-4A1C-BA22-0A300E2CABBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5041A9B-D452-464D-BC85-12B287E4687C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12756" windowHeight="2868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12756" windowHeight="2868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="533">
   <si>
     <t>SLNo</t>
   </si>
@@ -1642,13 +1642,13 @@
     <t>DL61000127</t>
   </si>
   <si>
-    <t>D920000080</t>
-  </si>
-  <si>
-    <t>D22400693</t>
-  </si>
-  <si>
-    <t>D320000216</t>
+    <t>TC#11</t>
+  </si>
+  <si>
+    <t>TC#12</t>
+  </si>
+  <si>
+    <t>TC#13</t>
   </si>
 </sst>
 </file>
@@ -2178,10 +2178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2346,9 +2346,51 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
   </dataValidations>
@@ -2363,8 +2405,8 @@
   <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="2" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,7 +2478,7 @@
       </c>
       <c r="E4" s="9" t="str">
         <f>D199 &amp; ", Acknowledged"</f>
-        <v>FRA01, Acknowledged</v>
+        <v>, Acknowledged</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -5251,9 +5293,7 @@
       <c r="C199" t="s">
         <v>119</v>
       </c>
-      <c r="D199" s="29" t="s">
-        <v>530</v>
-      </c>
+      <c r="D199" s="29"/>
       <c r="E199" s="9"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -5294,7 +5334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78135DB0-48C1-48EF-B1D4-B97674F1FA04}">
   <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
@@ -5430,7 +5470,7 @@
       </c>
       <c r="F7" s="9" t="str">
         <f>D178 &amp; ", Acknowledged"</f>
-        <v>D22400692, Acknowledged</v>
+        <v>, Acknowledged</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8335,9 +8375,7 @@
       <c r="C178" t="s">
         <v>119</v>
       </c>
-      <c r="D178" s="30" t="s">
-        <v>531</v>
-      </c>
+      <c r="D178" s="30"/>
       <c r="E178" s="27" t="s">
         <v>525</v>
       </c>
@@ -8378,8 +8416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAA36A6-658C-4CE3-AF09-C9B3587ADA6A}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+    <sheetView topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8530,7 +8568,7 @@
       </c>
       <c r="F8" s="9" t="str">
         <f>D208 &amp; ", Acknowledged"</f>
-        <v>XYZ, Acknowledged</v>
+        <v>, Acknowledged</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -11955,10 +11993,7 @@
       <c r="C208" t="s">
         <v>119</v>
       </c>
-      <c r="D208" s="31" t="str">
-        <f>E208</f>
-        <v>DL61000128</v>
-      </c>
+      <c r="D208" s="31"/>
       <c r="E208" s="28" t="s">
         <v>529</v>
       </c>
@@ -11998,8 +12033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09FF1B8-A6E4-4273-AAE7-8B972A5FB15D}">
   <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221"/>
+    <sheetView topLeftCell="A202" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12136,7 +12171,7 @@
       </c>
       <c r="E8" s="9" t="str">
         <f>D230 &amp; ", Acknowledged"</f>
-        <v>D320000215, Acknowledged</v>
+        <v>, Acknowledged</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>129</v>
@@ -15821,9 +15856,7 @@
       <c r="C230" t="s">
         <v>119</v>
       </c>
-      <c r="D230" s="32" t="s">
-        <v>532</v>
-      </c>
+      <c r="D230" s="32"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
@@ -15858,10 +15891,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB01B9C-2748-46DC-8A1A-84675AAFCB87}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15870,9 +15903,12 @@
     <col min="2" max="2" width="43.44140625" style="18" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -15881,8 +15917,17 @@
       <c r="D1" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
@@ -15895,8 +15940,17 @@
       <c r="D2" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
@@ -15908,7 +15962,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>238</v>
       </c>
@@ -15920,10 +15974,22 @@
       </c>
       <c r="D4" s="9" t="str">
         <f>FRA!D199 &amp; ", Acknowledged"</f>
-        <v>D920000079, Acknowledged</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>, Acknowledged</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IA!D178 &amp; ", Acknowledged"</f>
+        <v>, Acknowledged</v>
+      </c>
+      <c r="F4" t="str">
+        <f>GIB!D208 &amp; ", Acknowledged"</f>
+        <v>, Acknowledged</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VA!D230 &amp; ", Acknowledged"</f>
+        <v>, Acknowledged</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -15933,39 +15999,17 @@
       <c r="C5" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="9" t="str">
-        <f>IA!D178 &amp; ", Acknowledged"</f>
-        <v>D22400692, Acknowledged</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="9" t="str">
-        <f>GIB!D208 &amp; ", Acknowledged"</f>
-        <v>DL61000127, Acknowledged</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="9" t="str">
-        <f>VA!D230 &amp; ", Acknowledged"</f>
-        <v>D320000215, Acknowledged</v>
+      <c r="D5" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
